--- a/BioSTEAM 2.x.x/biorefineries/LAOs/results/Equipment list.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/LAOs/results/Equipment list.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/733a0933307f0df0/Code/Bioindustrial-Park/BioSTEAM 2.x.x/biorefineries/LAOs/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_C596C083CF7FEBEE42170B7C63180BA1455051B0" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{481E5A93-681E-42F9-9840-FD4E956D18B8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -106,15 +112,15 @@
     <t>Power</t>
   </si>
   <si>
+    <t>High pressure steam</t>
+  </si>
+  <si>
     <t>Medium pressure steam</t>
   </si>
   <si>
     <t>Low pressure steam</t>
   </si>
   <si>
-    <t>High pressure steam</t>
-  </si>
-  <si>
     <t>Cooling water</t>
   </si>
   <si>
@@ -214,13 +220,13 @@
     <t>Bag unloader</t>
   </si>
   <si>
+    <t>D101</t>
+  </si>
+  <si>
     <t>D102</t>
   </si>
   <si>
-    <t>D101</t>
-  </si>
-  <si>
-    <t>D104</t>
+    <t>D103</t>
   </si>
   <si>
     <t>Distillation</t>
@@ -334,27 +340,27 @@
     <t>H101</t>
   </si>
   <si>
-    <t>H109</t>
-  </si>
-  <si>
     <t>H107</t>
   </si>
   <si>
     <t>H108</t>
   </si>
   <si>
+    <t>H106</t>
+  </si>
+  <si>
+    <t>H105</t>
+  </si>
+  <si>
     <t>H103</t>
   </si>
   <si>
-    <t>H105</t>
+    <t>H102</t>
   </si>
   <si>
     <t>H104</t>
   </si>
   <si>
-    <t>H106</t>
-  </si>
-  <si>
     <t>Heat Exchanger</t>
   </si>
   <si>
@@ -427,18 +433,18 @@
     <t>P105</t>
   </si>
   <si>
+    <t>P107</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>P106</t>
+  </si>
+  <si>
     <t>P109</t>
   </si>
   <si>
-    <t>P107</t>
-  </si>
-  <si>
-    <t>P108</t>
-  </si>
-  <si>
-    <t>P106</t>
-  </si>
-  <si>
     <t>Ideal power</t>
   </si>
   <si>
@@ -478,22 +484,22 @@
     <t>Solid liquids split centrifuge</t>
   </si>
   <si>
+    <t>T102</t>
+  </si>
+  <si>
+    <t>T108</t>
+  </si>
+  <si>
+    <t>T109</t>
+  </si>
+  <si>
     <t>T101</t>
   </si>
   <si>
+    <t>T110</t>
+  </si>
+  <si>
     <t>T104</t>
-  </si>
-  <si>
-    <t>T108</t>
-  </si>
-  <si>
-    <t>T102</t>
-  </si>
-  <si>
-    <t>T109</t>
-  </si>
-  <si>
-    <t>T110</t>
   </si>
   <si>
     <t>Storage tank</t>
@@ -523,8 +529,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,8 +582,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -587,6 +596,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -633,7 +650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -665,9 +682,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -699,6 +734,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -874,14 +927,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -893,8 +956,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -904,11 +967,11 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>41613.98067766536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
+        <v>41598.859660683913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -916,11 +979,11 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>554.5604692217165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
+        <v>554.35896198458636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,8 +991,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -937,11 +1000,11 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>22.43845773825459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
+        <v>22.43573963407589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -949,11 +1012,11 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>11.2192288691273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
+        <v>11.21786981703795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -961,11 +1024,11 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>20867.39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
+        <v>20862.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -976,8 +1039,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -985,8 +1048,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -996,11 +1059,11 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>143116.6116980872</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
+        <v>143094.03139245641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1008,10 +1071,10 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>403239.4727665773</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>403092.950112027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1020,10 +1083,10 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>546356.0844646645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>546186.98150448338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,10 +1095,10 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>998604.5774306201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>998364.12070464564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1047,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1059,8 +1122,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1070,11 +1133,11 @@
         <v>45</v>
       </c>
       <c r="D19">
-        <v>-2869.450139630124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
+        <v>-2869.9731564898739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1082,11 +1145,11 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>-224.3910009190757</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
+        <v>-224.43190083750821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1096,11 +1159,11 @@
         <v>46</v>
       </c>
       <c r="D21">
-        <v>-41988346.3498651</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
+        <v>-3693094.162426081</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1108,11 +1171,11 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>-1311.162391291754</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
+        <v>-281.78983687702691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1120,11 +1183,11 @@
         <v>24</v>
       </c>
       <c r="D23">
-        <v>-417.9666694289981</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
+        <v>-115.8708066062586</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1134,11 +1197,11 @@
         <v>46</v>
       </c>
       <c r="D24">
-        <v>-851773.5266814616</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1"/>
+        <v>-41987959.749627762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1146,11 +1209,11 @@
         <v>47</v>
       </c>
       <c r="D25">
-        <v>-21.94265444034285</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1"/>
+        <v>-1311.1503189970399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1158,11 +1221,11 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>-5.217963225913531</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
+        <v>-417.96282107516549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1172,11 +1235,11 @@
         <v>46</v>
       </c>
       <c r="D27">
-        <v>-3693453.284819456</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1"/>
+        <v>-857249.29420506093</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>37</v>
       </c>
@@ -1184,11 +1247,11 @@
         <v>47</v>
       </c>
       <c r="D28">
-        <v>-281.8172385722443</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1"/>
+        <v>-22.08371643722613</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
@@ -1196,11 +1259,11 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>-115.8820740691395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
+        <v>-5.251507768772373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1210,11 +1273,11 @@
         <v>46</v>
       </c>
       <c r="D30">
-        <v>-1921699.444204094</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1"/>
+        <v>-1922039.5317623781</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
@@ -1222,11 +1285,11 @@
         <v>47</v>
       </c>
       <c r="D31">
-        <v>1313.279642827792</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1"/>
+        <v>1313.512056938345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1234,11 +1297,11 @@
         <v>24</v>
       </c>
       <c r="D32">
-        <v>0.6406834737535386</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
+        <v>0.64079685697737165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1248,11 +1311,11 @@
         <v>48</v>
       </c>
       <c r="D33">
-        <v>37103.05454336178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1"/>
+        <v>37105.991848761143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1260,11 +1323,11 @@
         <v>45</v>
       </c>
       <c r="D34">
-        <v>3024.897273284221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
+        <v>3025.4325962926318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1274,11 +1337,11 @@
         <v>23</v>
       </c>
       <c r="D35">
-        <v>9624319.027711589</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1"/>
+        <v>9624776.1725533474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1286,11 +1349,11 @@
         <v>23</v>
       </c>
       <c r="D36">
-        <v>103569.1255793452</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1"/>
+        <v>103574.0450018402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
@@ -1298,11 +1361,11 @@
         <v>23</v>
       </c>
       <c r="D37">
-        <v>13582.83614155347</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1"/>
+        <v>13583.48131171675</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
@@ -1310,11 +1373,11 @@
         <v>23</v>
       </c>
       <c r="D38">
-        <v>26486.53047602927</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1"/>
+        <v>26487.78855784766</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1322,10 +1385,10 @@
         <v>23</v>
       </c>
       <c r="D39">
-        <v>2012689.495597008</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>2012903.2021991611</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -1334,10 +1397,10 @@
         <v>23</v>
       </c>
       <c r="D40">
-        <v>11780647.01550553</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>11781324.689623909</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -1346,10 +1409,10 @@
         <v>24</v>
       </c>
       <c r="D41">
-        <v>21329447.57860516</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>21330673.295325249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -1358,10 +1421,10 @@
         <v>24</v>
       </c>
       <c r="D42">
-        <v>-403.4181671178291</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-403.43500603667678</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -1373,8 +1436,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1384,11 +1447,11 @@
         <v>45</v>
       </c>
       <c r="D46">
-        <v>2.293935474334395</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1"/>
+        <v>2.8675563388411152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
         <v>35</v>
       </c>
@@ -1396,10 +1459,10 @@
         <v>24</v>
       </c>
       <c r="D47">
-        <v>0.1793857540929497</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.22424290569737521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -1410,11 +1473,11 @@
         <v>48</v>
       </c>
       <c r="D48">
-        <v>408.1115367149835</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1" t="s">
+        <v>510.16379368770453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1424,11 +1487,11 @@
         <v>23</v>
       </c>
       <c r="D49">
-        <v>32223.50901574658</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1"/>
+        <v>37672.493344817231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>52</v>
       </c>
@@ -1436,11 +1499,11 @@
         <v>23</v>
       </c>
       <c r="D50">
-        <v>1221.458797640842</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1"/>
+        <v>1460.2372780342821</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
         <v>53</v>
       </c>
@@ -1448,10 +1511,10 @@
         <v>23</v>
       </c>
       <c r="D51">
-        <v>12475.13061762919</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>13947.953226471091</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -1460,10 +1523,10 @@
         <v>23</v>
       </c>
       <c r="D52">
-        <v>45920.09843101661</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>53080.683849322602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -1472,10 +1535,10 @@
         <v>24</v>
       </c>
       <c r="D53">
-        <v>106280.3416400715</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>123397.1480981377</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
@@ -1484,10 +1547,10 @@
         <v>24</v>
       </c>
       <c r="D54">
-        <v>0.1793857540929497</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.22424290569737521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -1499,7 +1562,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -1507,10 +1570,10 @@
         <v>9</v>
       </c>
       <c r="D58">
-        <v>5270.178911044059</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>5266.8386735750628</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
@@ -1521,10 +1584,10 @@
         <v>23</v>
       </c>
       <c r="D59">
-        <v>3394258.727657926</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>3392107.4477160191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -1533,10 +1596,10 @@
         <v>23</v>
       </c>
       <c r="D60">
-        <v>3394258.727657926</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>3392107.4477160191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -1545,10 +1608,10 @@
         <v>24</v>
       </c>
       <c r="D61">
-        <v>3394258.727657926</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>3392107.4477160191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -1560,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>58</v>
       </c>
@@ -1572,8 +1635,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -1583,11 +1646,11 @@
         <v>45</v>
       </c>
       <c r="D66">
-        <v>1999.073361586407</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1"/>
+        <v>1999.073361586406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
         <v>35</v>
       </c>
@@ -1598,8 +1661,8 @@
         <v>156.327536876057</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -1609,11 +1672,11 @@
         <v>46</v>
       </c>
       <c r="D68">
-        <v>-46185471.69587413</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1"/>
+        <v>-46185471.695874117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>37</v>
       </c>
@@ -1624,8 +1687,8 @@
         <v>31562.91685233422</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
         <v>35</v>
       </c>
@@ -1636,8 +1699,8 @@
         <v>15.39796898641125</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -1647,11 +1710,11 @@
         <v>46</v>
       </c>
       <c r="D71">
-        <v>46185471.69587413</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1"/>
+        <v>46185471.695874117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
         <v>37</v>
       </c>
@@ -1662,8 +1725,8 @@
         <v>-30608.66130019043</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
         <v>35</v>
       </c>
@@ -1671,10 +1734,10 @@
         <v>24</v>
       </c>
       <c r="D73">
-        <v>-230.9273584793707</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-230.92735847937061</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
@@ -1685,10 +1748,10 @@
         <v>46</v>
       </c>
       <c r="D74">
-        <v>-46185471.69587413</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-46185471.695874117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>4</v>
       </c>
@@ -1699,10 +1762,10 @@
         <v>23</v>
       </c>
       <c r="D75">
-        <v>1199131.842135328</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>1199131.8421353281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
@@ -1711,10 +1774,10 @@
         <v>23</v>
       </c>
       <c r="D76">
-        <v>1199131.842135328</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>1199131.8421353281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -1726,7 +1789,7 @@
         <v>1798697.763202992</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -1735,10 +1798,10 @@
         <v>24</v>
       </c>
       <c r="D78">
-        <v>-59.20185261690239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-59.201852616902393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>61</v>
       </c>
@@ -1750,8 +1813,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -1761,11 +1824,11 @@
         <v>45</v>
       </c>
       <c r="D82">
-        <v>254.820392392895</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="1"/>
+        <v>254.81916204624031</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
         <v>35</v>
       </c>
@@ -1773,11 +1836,11 @@
         <v>24</v>
       </c>
       <c r="D83">
-        <v>19.92695468512439</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="1" t="s">
+        <v>19.92685847201599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -1787,11 +1850,11 @@
         <v>46</v>
       </c>
       <c r="D84">
-        <v>79313083.83221008</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="1"/>
+        <v>79312705.907703474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
         <v>37</v>
       </c>
@@ -1799,11 +1862,11 @@
         <v>47</v>
       </c>
       <c r="D85">
-        <v>-54212.1384859299</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="1"/>
+        <v>-54211.876734024547</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
         <v>35</v>
       </c>
@@ -1811,10 +1874,10 @@
         <v>24</v>
       </c>
       <c r="D86">
-        <v>-26.44739176036091</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-26.447264064693879</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -1825,11 +1888,11 @@
         <v>47</v>
       </c>
       <c r="D87">
-        <v>54212.1384859299</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="1" t="s">
+        <v>54211.876734024547</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -1839,11 +1902,11 @@
         <v>23</v>
       </c>
       <c r="D88">
-        <v>277195.4149382651</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="1"/>
+        <v>277194.47807176592</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
         <v>62</v>
       </c>
@@ -1851,10 +1914,10 @@
         <v>23</v>
       </c>
       <c r="D89">
-        <v>45301.03787065511</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>45300.862889345997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
@@ -1863,10 +1926,10 @@
         <v>23</v>
       </c>
       <c r="D90">
-        <v>322496.4528089202</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>322495.34096111188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -1875,10 +1938,10 @@
         <v>24</v>
       </c>
       <c r="D91">
-        <v>556226.3398064284</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>556224.39206462144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
@@ -1887,10 +1950,10 @@
         <v>24</v>
       </c>
       <c r="D92">
-        <v>-6.520437075236519</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-6.5204055926778892</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>64</v>
       </c>
@@ -1902,8 +1965,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -1913,11 +1976,11 @@
         <v>45</v>
       </c>
       <c r="D96">
-        <v>1.398323877017119</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1"/>
+        <v>1.398326590410089</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
         <v>35</v>
       </c>
@@ -1925,10 +1988,10 @@
         <v>24</v>
       </c>
       <c r="D97">
-        <v>0.1093489271827387</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.109349139370069</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>3</v>
       </c>
@@ -1939,11 +2002,11 @@
         <v>48</v>
       </c>
       <c r="D98">
-        <v>50.89128362109326</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1" t="s">
+        <v>50.89138237364515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -1953,11 +2016,11 @@
         <v>23</v>
       </c>
       <c r="D99">
-        <v>49092.43741491987</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1"/>
+        <v>49092.50409827313</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
         <v>52</v>
       </c>
@@ -1965,11 +2028,11 @@
         <v>23</v>
       </c>
       <c r="D100">
-        <v>1285.231195032905</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1"/>
+        <v>1285.2331901853411</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2"/>
       <c r="B101" s="1" t="s">
         <v>53</v>
       </c>
@@ -1977,11 +2040,11 @@
         <v>23</v>
       </c>
       <c r="D101">
-        <v>5953.1844532194</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1"/>
+        <v>5953.1902291777724</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2"/>
       <c r="B102" s="1" t="s">
         <v>65</v>
       </c>
@@ -1989,10 +2052,10 @@
         <v>23</v>
       </c>
       <c r="D102">
-        <v>16221.46590332247</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>16221.48478958846</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>5</v>
       </c>
@@ -2001,10 +2064,10 @@
         <v>23</v>
       </c>
       <c r="D103">
-        <v>72552.31896649464</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>72552.412307224702</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>6</v>
       </c>
@@ -2013,10 +2076,10 @@
         <v>24</v>
       </c>
       <c r="D104">
-        <v>128856.8727669351</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>128857.0397525333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>7</v>
       </c>
@@ -2025,10 +2088,10 @@
         <v>24</v>
       </c>
       <c r="D105">
-        <v>0.1093489271827387</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>0.109349139370069</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>69</v>
       </c>
@@ -2046,8 +2109,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -2057,17 +2120,17 @@
         <v>46</v>
       </c>
       <c r="D109">
-        <v>-3948006.48777041</v>
+        <v>-5486178.8983799331</v>
       </c>
       <c r="E109">
-        <v>-5486888.631676152</v>
+        <v>-3948001.1326743681</v>
       </c>
       <c r="F109">
-        <v>-2193178.650183149</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1"/>
+        <v>-413836.32536739763</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
         <v>37</v>
       </c>
@@ -2075,17 +2138,17 @@
         <v>47</v>
       </c>
       <c r="D110">
-        <v>2698.047587919413</v>
+        <v>3749.2268033296968</v>
       </c>
       <c r="E110">
-        <v>3749.711831460695</v>
+        <v>2698.043928273968</v>
       </c>
       <c r="F110">
-        <v>1498.807153770591</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1"/>
+        <v>282.81364352101127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
         <v>35</v>
       </c>
@@ -2093,18 +2156,18 @@
         <v>24</v>
       </c>
       <c r="D111">
-        <v>1.316242515766486</v>
+        <v>1.8290602960043929</v>
       </c>
       <c r="E111">
-        <v>1.8292969169781</v>
+        <v>1.3162407304084549</v>
       </c>
       <c r="F111">
-        <v>0.7311930699669831</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1" t="s">
-        <v>30</v>
+        <v>0.13797063599172529</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>36</v>
@@ -2113,17 +2176,17 @@
         <v>46</v>
       </c>
       <c r="D112">
-        <v>4463692.666988897</v>
+        <v>27141442.638719629</v>
       </c>
       <c r="E112">
-        <v>27142927.32990276</v>
+        <v>4464790.8614120157</v>
       </c>
       <c r="F112">
-        <v>5273304.253231313</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1"/>
+        <v>5108421.9962562975</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
         <v>37</v>
       </c>
@@ -2131,17 +2194,17 @@
         <v>47</v>
       </c>
       <c r="D113">
-        <v>139.3869123226243</v>
+        <v>847.54085185367001</v>
       </c>
       <c r="E113">
-        <v>847.5872140329705</v>
+        <v>139.42120543847889</v>
       </c>
       <c r="F113">
-        <v>164.6685048528461</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1"/>
+        <v>159.5197568517799</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="2"/>
       <c r="B114" s="1" t="s">
         <v>35</v>
       </c>
@@ -2149,49 +2212,49 @@
         <v>24</v>
       </c>
       <c r="D114">
-        <v>44.43315632938675</v>
+        <v>270.17540268623338</v>
       </c>
       <c r="E114">
-        <v>270.1901818209908</v>
+        <v>44.444088140360947</v>
       </c>
       <c r="F114">
-        <v>52.49231292043829</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1" t="s">
+        <v>50.851017328048172</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115">
         <v>1</v>
       </c>
-      <c r="E115">
-        <v>3</v>
-      </c>
       <c r="F115">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="2"/>
       <c r="B116" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D116">
+        <v>25</v>
+      </c>
+      <c r="E116">
         <v>60</v>
       </c>
-      <c r="E116">
-        <v>25</v>
-      </c>
       <c r="F116">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="2"/>
       <c r="B117" s="1" t="s">
         <v>72</v>
       </c>
@@ -2205,11 +2268,11 @@
         <v>0.3</v>
       </c>
       <c r="F117">
-        <v>1.19258271441683</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="2"/>
       <c r="B118" s="1" t="s">
         <v>73</v>
       </c>
@@ -2223,35 +2286,35 @@
         <v>0.315</v>
       </c>
       <c r="F118">
-        <v>1.252211850137671</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1"/>
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="2"/>
       <c r="B119" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119">
         <v>1</v>
       </c>
-      <c r="E119">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="2"/>
       <c r="B120" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D120">
+        <v>40</v>
+      </c>
+      <c r="E120">
         <v>87</v>
       </c>
-      <c r="E120">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
         <v>76</v>
       </c>
@@ -2259,14 +2322,14 @@
         <v>20</v>
       </c>
       <c r="D121">
+        <v>19.900416</v>
+      </c>
+      <c r="E121">
         <v>13.996416</v>
       </c>
-      <c r="E121">
-        <v>19.900416</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="2"/>
       <c r="B122" s="1" t="s">
         <v>77</v>
       </c>
@@ -2274,14 +2337,14 @@
         <v>20</v>
       </c>
       <c r="D122">
-        <v>140.932416</v>
+        <v>71.560415999999989</v>
       </c>
       <c r="E122">
-        <v>71.56041599999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="1"/>
+        <v>140.93241599999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="2"/>
       <c r="B123" s="1" t="s">
         <v>78</v>
       </c>
@@ -2289,14 +2352,14 @@
         <v>20</v>
       </c>
       <c r="D123">
-        <v>5.549305772532383</v>
+        <v>5.9384190236024716</v>
       </c>
       <c r="E123">
-        <v>5.938668193914531</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1"/>
+        <v>5.5493042469919107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="2"/>
       <c r="B124" s="1" t="s">
         <v>79</v>
       </c>
@@ -2304,14 +2367,14 @@
         <v>20</v>
       </c>
       <c r="D124">
-        <v>2.99792</v>
+        <v>7.0696632247731674</v>
       </c>
       <c r="E124">
-        <v>7.070057583250141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1"/>
+        <v>2.9979200000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
         <v>80</v>
       </c>
@@ -2325,8 +2388,8 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1"/>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="2"/>
       <c r="B126" s="1" t="s">
         <v>81</v>
       </c>
@@ -2334,14 +2397,14 @@
         <v>22</v>
       </c>
       <c r="D126">
+        <v>0.375</v>
+      </c>
+      <c r="E126">
         <v>1.75</v>
       </c>
-      <c r="E126">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="2"/>
       <c r="B127" s="1" t="s">
         <v>82</v>
       </c>
@@ -2349,14 +2412,14 @@
         <v>21</v>
       </c>
       <c r="D127">
-        <v>24022.37867272377</v>
+        <v>7214.877044899381</v>
       </c>
       <c r="E127">
-        <v>7215.23653341975</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1"/>
+        <v>24022.370647665641</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="2"/>
       <c r="B128" s="1" t="s">
         <v>83</v>
       </c>
@@ -2364,14 +2427,14 @@
         <v>21</v>
       </c>
       <c r="D128">
+        <v>26882.137949263841</v>
+      </c>
+      <c r="E128">
         <v>103094.6428787647</v>
       </c>
-      <c r="E128">
-        <v>26883.74072396658</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1" t="s">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -2381,14 +2444,14 @@
         <v>23</v>
       </c>
       <c r="D129">
+        <v>12268.73530807186</v>
+      </c>
+      <c r="E129">
         <v>0</v>
       </c>
-      <c r="E129">
-        <v>12269.3039961496</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="2"/>
       <c r="B130" s="1" t="s">
         <v>85</v>
       </c>
@@ -2396,14 +2459,14 @@
         <v>23</v>
       </c>
       <c r="D130">
-        <v>87867.64883632163</v>
+        <v>73943.810553116258</v>
       </c>
       <c r="E130">
-        <v>73948.82917419434</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1"/>
+        <v>87867.643690477984</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="2"/>
       <c r="B131" s="1" t="s">
         <v>86</v>
       </c>
@@ -2411,14 +2474,14 @@
         <v>23</v>
       </c>
       <c r="D131">
-        <v>188513.8032334406</v>
+        <v>107880.3216653906</v>
       </c>
       <c r="E131">
-        <v>107883.4169590122</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1"/>
+        <v>188513.7633939934</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="2"/>
       <c r="B132" s="1" t="s">
         <v>87</v>
       </c>
@@ -2426,14 +2489,14 @@
         <v>23</v>
       </c>
       <c r="D132">
-        <v>539766.8531757435</v>
+        <v>267846.21689577668</v>
       </c>
       <c r="E132">
-        <v>267856.3110900518</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1"/>
+        <v>539766.85317574348</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="2"/>
       <c r="B133" s="1" t="s">
         <v>88</v>
       </c>
@@ -2441,17 +2504,17 @@
         <v>23</v>
       </c>
       <c r="D133">
-        <v>77002.80615463122</v>
+        <v>78838.593136053038</v>
       </c>
       <c r="E133">
-        <v>78839.37692114535</v>
+        <v>77002.792429055829</v>
       </c>
       <c r="F133">
-        <v>5471.255506147141</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1"/>
+        <v>4900.8048472465016</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="2"/>
       <c r="B134" s="1" t="s">
         <v>40</v>
       </c>
@@ -2459,16 +2522,16 @@
         <v>23</v>
       </c>
       <c r="D134">
-        <v>170061.1522468124</v>
+        <v>562768.71375619445</v>
       </c>
       <c r="E134">
-        <v>562800.7498593036</v>
+        <v>170082.41785669161</v>
       </c>
       <c r="F134">
-        <v>87022.13502678981</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>6043.1411577789549</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>5</v>
       </c>
@@ -2477,16 +2540,16 @@
         <v>23</v>
       </c>
       <c r="D135">
-        <v>1063212.263646949</v>
+        <v>1103546.3913146029</v>
       </c>
       <c r="E135">
-        <v>1103597.987999857</v>
+        <v>1063233.470545962</v>
       </c>
       <c r="F135">
-        <v>449952.3896066786</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>420591.05838388117</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>6</v>
       </c>
@@ -2495,16 +2558,16 @@
         <v>24</v>
       </c>
       <c r="D136">
-        <v>4292630.460688251</v>
+        <v>4020233.225864552</v>
       </c>
       <c r="E136">
-        <v>4020418.005137477</v>
+        <v>4292697.6357247438</v>
       </c>
       <c r="F136">
-        <v>1822782.123963078</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>1781181.686038126</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
@@ -2513,16 +2576,16 @@
         <v>24</v>
       </c>
       <c r="D137">
-        <v>45.74939884515323</v>
+        <v>272.00446298223778</v>
       </c>
       <c r="E137">
-        <v>272.0194787379689</v>
+        <v>45.760328870769413</v>
       </c>
       <c r="F137">
-        <v>53.22350599040528</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>50.988987964039893</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>91</v>
       </c>
@@ -2534,8 +2597,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -2545,11 +2608,11 @@
         <v>45</v>
       </c>
       <c r="D141">
-        <v>147.5964104569771</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1"/>
+        <v>147.59664661110949</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="2"/>
       <c r="B142" s="1" t="s">
         <v>35</v>
       </c>
@@ -2557,11 +2620,11 @@
         <v>24</v>
       </c>
       <c r="D142">
-        <v>11.54203929773561</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1" t="s">
+        <v>11.54205776498876</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -2571,11 +2634,11 @@
         <v>46</v>
       </c>
       <c r="D143">
-        <v>-46185471.69587413</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1"/>
+        <v>-46185471.695874117</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="2"/>
       <c r="B144" s="1" t="s">
         <v>37</v>
       </c>
@@ -2586,8 +2649,8 @@
         <v>30608.66130019043</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="1"/>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="2"/>
       <c r="B145" s="1" t="s">
         <v>35</v>
       </c>
@@ -2595,11 +2658,11 @@
         <v>24</v>
       </c>
       <c r="D145">
-        <v>230.9273584793707</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="1" t="s">
+        <v>230.92735847937061</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -2609,11 +2672,11 @@
         <v>103</v>
       </c>
       <c r="D146">
-        <v>3567.452847625807</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="1"/>
+        <v>3567.4585555473559</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="2"/>
       <c r="B147" s="1" t="s">
         <v>93</v>
       </c>
@@ -2624,8 +2687,8 @@
         <v>120.1666666666667</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1"/>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="2"/>
       <c r="B148" s="1" t="s">
         <v>94</v>
       </c>
@@ -2633,11 +2696,11 @@
         <v>104</v>
       </c>
       <c r="D148">
-        <v>17.16666666666667</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="1"/>
+        <v>17.166666666666661</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="2"/>
       <c r="B149" s="1" t="s">
         <v>95</v>
       </c>
@@ -2645,8 +2708,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1"/>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="2"/>
       <c r="B150" s="1" t="s">
         <v>96</v>
       </c>
@@ -2654,11 +2717,11 @@
         <v>46</v>
       </c>
       <c r="D150">
-        <v>46185471.69587413</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1"/>
+        <v>46185471.695874117</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
         <v>97</v>
       </c>
@@ -2669,8 +2732,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="1"/>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="2"/>
       <c r="B152" s="1" t="s">
         <v>98</v>
       </c>
@@ -2678,8 +2741,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -2692,8 +2755,8 @@
         <v>102629.6606944458</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="1"/>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="2"/>
       <c r="B154" s="1" t="s">
         <v>100</v>
       </c>
@@ -2701,11 +2764,11 @@
         <v>23</v>
       </c>
       <c r="D154">
-        <v>6236849.072198733</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="1"/>
+        <v>6236854.0616733665</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="2"/>
       <c r="B155" s="1" t="s">
         <v>101</v>
       </c>
@@ -2713,11 +2776,11 @@
         <v>23</v>
       </c>
       <c r="D155">
-        <v>387955.659111888</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="1"/>
+        <v>387955.96947612759</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="2"/>
       <c r="B156" s="1" t="s">
         <v>102</v>
       </c>
@@ -2725,10 +2788,10 @@
         <v>23</v>
       </c>
       <c r="D156">
-        <v>441810.5472683664</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>441810.97140613262</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>5</v>
       </c>
@@ -2737,10 +2800,10 @@
         <v>23</v>
       </c>
       <c r="D157">
-        <v>7169244.939273433</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>7169250.6632500729</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>6</v>
       </c>
@@ -2749,10 +2812,10 @@
         <v>24</v>
       </c>
       <c r="D158">
-        <v>10958251.33557677</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>10958260.04878306</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>7</v>
       </c>
@@ -2761,10 +2824,10 @@
         <v>24</v>
       </c>
       <c r="D159">
-        <v>242.4693977771063</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
+        <v>242.46941624435939</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>113</v>
       </c>
@@ -2797,9 +2860,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
-      <c r="A163" s="1" t="s">
-        <v>31</v>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>36</v>
@@ -2808,11 +2871,11 @@
         <v>46</v>
       </c>
       <c r="D163">
-        <v>851773.5266814616</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164" s="1"/>
+        <v>857249.29420506093</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="2"/>
       <c r="B164" s="1" t="s">
         <v>37</v>
       </c>
@@ -2820,11 +2883,11 @@
         <v>47</v>
       </c>
       <c r="D164">
-        <v>21.94265444034285</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165" s="1"/>
+        <v>22.08371643722613</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="2"/>
       <c r="B165" s="1" t="s">
         <v>35</v>
       </c>
@@ -2832,11 +2895,11 @@
         <v>24</v>
       </c>
       <c r="D165">
-        <v>5.217963225913531</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166" s="1" t="s">
+        <v>5.251507768772373</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -2846,32 +2909,32 @@
         <v>123</v>
       </c>
       <c r="D166">
-        <v>47.12189682636436</v>
+        <v>47.422968084287589</v>
       </c>
       <c r="E166">
-        <v>1794.294888214704</v>
+        <v>367.7216230059538</v>
       </c>
       <c r="F166">
-        <v>367.7216230059317</v>
+        <v>371.24439515303408</v>
       </c>
       <c r="G166">
-        <v>371.2443951530349</v>
+        <v>433.16039451525359</v>
       </c>
       <c r="H166">
-        <v>965.7940315766072</v>
+        <v>9.84942172796565</v>
       </c>
       <c r="I166">
-        <v>9.852857709518373</v>
+        <v>965.57516432060356</v>
       </c>
       <c r="J166">
-        <v>2661.41714205312</v>
+        <v>16154.928893986869</v>
       </c>
       <c r="K166">
-        <v>433.1604389811908</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167" s="1"/>
+        <v>2659.0106702033372</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="2"/>
       <c r="B167" s="1" t="s">
         <v>115</v>
       </c>
@@ -2897,14 +2960,14 @@
         <v>0.5</v>
       </c>
       <c r="J167">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K167">
         <v>0.5</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
-      <c r="A168" s="1"/>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="2"/>
       <c r="B168" s="1" t="s">
         <v>116</v>
       </c>
@@ -2912,62 +2975,62 @@
         <v>125</v>
       </c>
       <c r="D168">
-        <v>102.6799892153585</v>
+        <v>102.6840157831637</v>
       </c>
       <c r="E168">
-        <v>44.77889971820499</v>
+        <v>37.223710938997982</v>
       </c>
       <c r="F168">
-        <v>37.22371093899798</v>
+        <v>49.762611340180307</v>
       </c>
       <c r="G168">
-        <v>49.76261134018034</v>
+        <v>17.638891903456479</v>
       </c>
       <c r="H168">
-        <v>21.72363682372596</v>
+        <v>8.9687971089543641</v>
       </c>
       <c r="I168">
-        <v>8.968797108954364</v>
+        <v>21.726448213354029</v>
       </c>
       <c r="J168">
-        <v>24.79173522059014</v>
+        <v>11.180560784791201</v>
       </c>
       <c r="K168">
-        <v>17.63889117044934</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169" s="1"/>
+        <v>24.798276308965409</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="2"/>
       <c r="B169" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D169">
-        <v>0.9999999999999944</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.9532696144066711</v>
+        <v>0.94902085678128456</v>
       </c>
       <c r="F169">
-        <v>0.9490208567812846</v>
+        <v>0.95559328832258539</v>
       </c>
       <c r="G169">
-        <v>0.9555932883225855</v>
+        <v>0.9284732684114031</v>
       </c>
       <c r="H169">
+        <v>0.99922876476901179</v>
+      </c>
+      <c r="I169">
         <v>1</v>
-      </c>
-      <c r="I169">
-        <v>0.9992287647690118</v>
       </c>
       <c r="J169">
         <v>1</v>
       </c>
       <c r="K169">
-        <v>0.928473266996076</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170" s="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="2"/>
       <c r="B170" s="1" t="s">
         <v>118</v>
       </c>
@@ -2981,26 +3044,26 @@
         <v>1.5</v>
       </c>
       <c r="F170">
+        <v>5</v>
+      </c>
+      <c r="G170">
         <v>1.5</v>
       </c>
-      <c r="G170">
+      <c r="H170">
         <v>5</v>
       </c>
-      <c r="H170">
+      <c r="I170">
         <v>1.5</v>
       </c>
-      <c r="I170">
+      <c r="J170">
+        <v>1.5</v>
+      </c>
+      <c r="K170">
         <v>5</v>
       </c>
-      <c r="J170">
-        <v>5</v>
-      </c>
-      <c r="K170">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171" s="1"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="2"/>
       <c r="B171" s="1" t="s">
         <v>119</v>
       </c>
@@ -3020,20 +3083,20 @@
         <v>5</v>
       </c>
       <c r="H171">
+        <v>5</v>
+      </c>
+      <c r="I171">
         <v>3</v>
       </c>
-      <c r="I171">
-        <v>5</v>
-      </c>
       <c r="J171">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="K171">
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
-      <c r="A172" s="1"/>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="2"/>
       <c r="B172" s="1" t="s">
         <v>120</v>
       </c>
@@ -3053,20 +3116,20 @@
         <v>14.7</v>
       </c>
       <c r="H172">
-        <v>2709.531861458823</v>
+        <v>14.7</v>
       </c>
       <c r="I172">
-        <v>14.7</v>
+        <v>2709.5318614588232</v>
       </c>
       <c r="J172">
-        <v>14.7</v>
+        <v>73.5</v>
       </c>
       <c r="K172">
         <v>14.7</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
-      <c r="A173" s="1"/>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="2"/>
       <c r="B173" s="1" t="s">
         <v>121</v>
       </c>
@@ -3098,7 +3161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>4</v>
       </c>
@@ -3109,13 +3172,13 @@
         <v>23</v>
       </c>
       <c r="D174">
-        <v>4599.298264793981</v>
-      </c>
-      <c r="I174">
-        <v>3548.4066786823</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
+        <v>4603.9874314544677</v>
+      </c>
+      <c r="H174">
+        <v>3548.2086602573982</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>5</v>
       </c>
@@ -3124,31 +3187,31 @@
         <v>23</v>
       </c>
       <c r="D175">
-        <v>4599.298264793981</v>
+        <v>4603.9874314544677</v>
       </c>
       <c r="E175">
-        <v>148792.6937185986</v>
+        <v>84527.939936558178</v>
       </c>
       <c r="F175">
-        <v>84527.93993655717</v>
+        <v>84700.645060259485</v>
       </c>
       <c r="G175">
-        <v>84700.64506025949</v>
+        <v>87744.71072861139</v>
       </c>
       <c r="H175">
-        <v>312235.6934445326</v>
+        <v>168609.46450716449</v>
       </c>
       <c r="I175">
-        <v>168608.2680761643</v>
+        <v>312208.23111725348</v>
       </c>
       <c r="J175">
-        <v>183805.481794609</v>
+        <v>700029.18766990968</v>
       </c>
       <c r="K175">
-        <v>87744.71291628531</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
+        <v>183710.4564313743</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>6</v>
       </c>
@@ -3157,31 +3220,31 @@
         <v>24</v>
       </c>
       <c r="D176">
-        <v>8278.736876629166</v>
+        <v>8287.1773766180413</v>
       </c>
       <c r="E176">
-        <v>471672.8390879576</v>
+        <v>267953.56959888939</v>
       </c>
       <c r="F176">
-        <v>267953.5695988862</v>
+        <v>268501.04484102258</v>
       </c>
       <c r="G176">
-        <v>268501.0448410226</v>
+        <v>278150.7330096981</v>
       </c>
       <c r="H176">
-        <v>989787.1482191682</v>
+        <v>529630.95662315888</v>
       </c>
       <c r="I176">
-        <v>529626.892651646</v>
+        <v>989700.09264169366</v>
       </c>
       <c r="J176">
-        <v>582663.3772889107</v>
+        <v>2219092.5249136142</v>
       </c>
       <c r="K176">
-        <v>278150.7399446244</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
+        <v>582362.14688745642</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>7</v>
       </c>
@@ -3190,31 +3253,31 @@
         <v>24</v>
       </c>
       <c r="D177">
-        <v>5.217963225913531</v>
+        <v>5.251507768772373</v>
       </c>
       <c r="E177">
-        <v>4.270514590300023</v>
+        <v>0.72428887465234737</v>
       </c>
       <c r="F177">
-        <v>0.7242888746523037</v>
+        <v>0.98431336194579433</v>
       </c>
       <c r="G177">
-        <v>0.9843133619457965</v>
+        <v>0.3955365906478292</v>
       </c>
       <c r="H177">
-        <v>115.8820740691395</v>
+        <v>9.7885092693387795E-3</v>
       </c>
       <c r="I177">
-        <v>0.009791924001513626</v>
+        <v>115.8708066062586</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
       <c r="K177">
-        <v>0.3955366142115271</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>128</v>
       </c>
@@ -3226,8 +3289,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
-      <c r="A181" s="1" t="s">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -3237,11 +3300,11 @@
         <v>45</v>
       </c>
       <c r="D181">
-        <v>31.57829463680113</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182" s="1"/>
+        <v>31.57829034297928</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="2"/>
       <c r="B182" s="1" t="s">
         <v>35</v>
       </c>
@@ -3249,11 +3312,11 @@
         <v>24</v>
       </c>
       <c r="D182">
-        <v>2.469422640597848</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183" s="1" t="s">
+        <v>2.4694223048209798</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -3263,11 +3326,11 @@
         <v>130</v>
       </c>
       <c r="D183">
-        <v>22.55592474057223</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184" s="1"/>
+        <v>22.555921673556629</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="2"/>
       <c r="B184" s="1" t="s">
         <v>129</v>
       </c>
@@ -3275,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>4</v>
       </c>
@@ -3286,10 +3349,10 @@
         <v>23</v>
       </c>
       <c r="D185">
-        <v>181532.2217167394</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
+        <v>181532.207548334</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
@@ -3298,10 +3361,10 @@
         <v>23</v>
       </c>
       <c r="D186">
-        <v>181532.2217167394</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
+        <v>181532.207548334</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>6</v>
       </c>
@@ -3310,10 +3373,10 @@
         <v>24</v>
       </c>
       <c r="D187">
-        <v>368510.4100849809</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
+        <v>368510.38132311788</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>7</v>
       </c>
@@ -3322,10 +3385,10 @@
         <v>24</v>
       </c>
       <c r="D188">
-        <v>2.469422640597848</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
+        <v>2.4694223048209798</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>132</v>
       </c>
@@ -3337,8 +3400,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
-      <c r="A192" s="1" t="s">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B192" s="1" t="s">
@@ -3348,11 +3411,11 @@
         <v>45</v>
       </c>
       <c r="D192">
-        <v>3.573198098665491</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
-      <c r="A193" s="1"/>
+        <v>3.5732090790686009</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" s="2"/>
       <c r="B193" s="1" t="s">
         <v>35</v>
       </c>
@@ -3360,11 +3423,11 @@
         <v>24</v>
       </c>
       <c r="D193">
-        <v>0.2794240913156414</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
-      <c r="A194" s="1" t="s">
+        <v>0.27942494998316458</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -3374,11 +3437,11 @@
         <v>23</v>
       </c>
       <c r="D194">
-        <v>14640.83000475229</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
-      <c r="A195" s="1"/>
+        <v>14640.84564766531</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" s="2"/>
       <c r="B195" s="1" t="s">
         <v>134</v>
       </c>
@@ -3386,10 +3449,10 @@
         <v>23</v>
       </c>
       <c r="D195">
-        <v>3060.891636367438</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>3060.8925765266622</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>5</v>
       </c>
@@ -3398,10 +3461,10 @@
         <v>23</v>
       </c>
       <c r="D196">
-        <v>17701.72164111972</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>17701.738224191969</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>6</v>
       </c>
@@ -3410,10 +3473,10 @@
         <v>24</v>
       </c>
       <c r="D197">
-        <v>53623.24237998627</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>53623.282745307522</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>7</v>
       </c>
@@ -3422,10 +3485,10 @@
         <v>24</v>
       </c>
       <c r="D198">
-        <v>0.2794240913156414</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>0.27942494998316458</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>52</v>
       </c>
@@ -3452,8 +3515,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
-      <c r="A202" s="1" t="s">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B202" s="1" t="s">
@@ -3463,26 +3526,26 @@
         <v>45</v>
       </c>
       <c r="D202">
-        <v>31.24386486295478</v>
+        <v>31.243908678041809</v>
       </c>
       <c r="E202">
-        <v>11.37026028204426</v>
+        <v>11.366924505781739</v>
       </c>
       <c r="F202">
-        <v>7.410648403817354</v>
+        <v>10.9190009278687</v>
       </c>
       <c r="G202">
-        <v>10.92232256282081</v>
+        <v>8.6226749077478129</v>
       </c>
       <c r="H202">
-        <v>8.62701869577371</v>
+        <v>11.019449745918161</v>
       </c>
       <c r="I202">
-        <v>11.02279470541556</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
-      <c r="A203" s="1"/>
+        <v>7.4071151354655962</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" s="2"/>
       <c r="B203" s="1" t="s">
         <v>35</v>
       </c>
@@ -3490,26 +3553,26 @@
         <v>24</v>
       </c>
       <c r="D203">
-        <v>2.443270232283064</v>
+        <v>2.4432736586228692</v>
       </c>
       <c r="E203">
-        <v>0.8891543540558613</v>
+        <v>0.88889349635213233</v>
       </c>
       <c r="F203">
-        <v>0.5795127051785172</v>
+        <v>0.85386587255933222</v>
       </c>
       <c r="G203">
-        <v>0.8541256244125875</v>
+        <v>0.67429317778587905</v>
       </c>
       <c r="H203">
-        <v>0.6746328620095042</v>
+        <v>0.86172097013080007</v>
       </c>
       <c r="I203">
-        <v>0.8619825459634969</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
-      <c r="A204" s="1" t="s">
+        <v>0.57923640359340967</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B204" s="1" t="s">
@@ -3519,26 +3582,26 @@
         <v>149</v>
       </c>
       <c r="D204">
-        <v>28.23694172461768</v>
+        <v>28.23698690370064</v>
       </c>
       <c r="E204">
-        <v>8.547756783806047</v>
+        <v>8.5446651238150579</v>
       </c>
       <c r="F204">
-        <v>4.977151111476201</v>
+        <v>8.1306206163123544</v>
       </c>
       <c r="G204">
-        <v>8.133682844602459</v>
+        <v>6.0463675665904546</v>
       </c>
       <c r="H204">
-        <v>6.050242054059106</v>
+        <v>8.2232794883279468</v>
       </c>
       <c r="I204">
-        <v>8.226366980955163</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
-      <c r="A205" s="1"/>
+        <v>4.9740709224046267</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" s="2"/>
       <c r="B205" s="1" t="s">
         <v>38</v>
       </c>
@@ -3546,74 +3609,74 @@
         <v>150</v>
       </c>
       <c r="D205">
-        <v>823.4997319972884</v>
+        <v>823.50104959616567</v>
       </c>
       <c r="E205">
-        <v>249.2860412891472</v>
+        <v>249.19587638393759</v>
       </c>
       <c r="F205">
-        <v>145.1532055554487</v>
+        <v>237.12071809347151</v>
       </c>
       <c r="G205">
-        <v>237.210024655096</v>
+        <v>176.33574199373581</v>
       </c>
       <c r="H205">
-        <v>176.4487372119566</v>
+        <v>239.8230134417488</v>
       </c>
       <c r="I205">
-        <v>239.9130568103208</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
-      <c r="A206" s="1"/>
+        <v>145.06337518714329</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" s="2"/>
       <c r="B206" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D206">
-        <v>0.6739444930865033</v>
+        <v>0.67394462628541763</v>
       </c>
       <c r="E206">
-        <v>0.5605998433174054</v>
+        <v>0.56056153455724689</v>
       </c>
       <c r="F206">
-        <v>0.5008363478323792</v>
+        <v>0.55527998048630378</v>
       </c>
       <c r="G206">
-        <v>0.555320182875835</v>
+        <v>0.52290615579240707</v>
       </c>
       <c r="H206">
-        <v>0.5229777748445705</v>
+        <v>0.55648871864668181</v>
       </c>
       <c r="I206">
-        <v>0.5565287219823215</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
-      <c r="A207" s="1"/>
+        <v>0.50076515341945949</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" s="2"/>
       <c r="B207" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D207">
-        <v>41.89802278122237</v>
+        <v>41.898081537254058</v>
       </c>
       <c r="E207">
-        <v>15.24751903822135</v>
+        <v>15.24304576225332</v>
       </c>
       <c r="F207">
-        <v>9.937679509519072</v>
+        <v>14.642380244271919</v>
       </c>
       <c r="G207">
-        <v>14.64683455674271</v>
+        <v>11.563007051289819</v>
       </c>
       <c r="H207">
-        <v>11.56883207103255</v>
+        <v>14.77708210927625</v>
       </c>
       <c r="I207">
-        <v>14.78156769996226</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
-      <c r="A208" s="1"/>
+        <v>9.9329413966593645</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" s="2"/>
       <c r="B208" s="1" t="s">
         <v>144</v>
       </c>
@@ -3624,7 +3687,7 @@
         <v>20</v>
       </c>
       <c r="F208">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G208">
         <v>15</v>
@@ -3633,11 +3696,11 @@
         <v>15</v>
       </c>
       <c r="I208">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
-      <c r="A209" s="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" s="2"/>
       <c r="B209" s="1" t="s">
         <v>145</v>
       </c>
@@ -3660,8 +3723,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
-      <c r="A210" s="1"/>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" s="2"/>
       <c r="B210" s="1" t="s">
         <v>146</v>
       </c>
@@ -3669,26 +3732,26 @@
         <v>20</v>
       </c>
       <c r="D210">
-        <v>213.9009857657767</v>
+        <v>213.8890460604469</v>
       </c>
       <c r="E210">
-        <v>328.9594952154278</v>
+        <v>328.98252633016068</v>
       </c>
       <c r="F210">
-        <v>362.939417627667</v>
+        <v>316.0186828393621</v>
       </c>
       <c r="G210">
-        <v>315.9999531866147</v>
+        <v>440.78695930333299</v>
       </c>
       <c r="H210">
-        <v>440.7266179126649</v>
+        <v>335.89869663972041</v>
       </c>
       <c r="I210">
-        <v>335.8723050393955</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
-      <c r="A211" s="1"/>
+        <v>362.99021574707541</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" s="2"/>
       <c r="B211" s="1" t="s">
         <v>147</v>
       </c>
@@ -3711,8 +3774,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
-      <c r="A212" s="1" t="s">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B212" s="1" t="s">
@@ -3722,26 +3785,26 @@
         <v>23</v>
       </c>
       <c r="D212">
-        <v>16537.58451721483</v>
+        <v>16537.377788954858</v>
       </c>
       <c r="E212">
-        <v>11278.23963153474</v>
+        <v>11277.11132290081</v>
       </c>
       <c r="F212">
-        <v>9906.169943996871</v>
+        <v>11043.40591733271</v>
       </c>
       <c r="G212">
-        <v>11044.53297089138</v>
+        <v>15967.777936681519</v>
       </c>
       <c r="H212">
-        <v>15970.26126599507</v>
+        <v>11181.82450271458</v>
       </c>
       <c r="I212">
-        <v>11182.95718492689</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
-      <c r="A213" s="1"/>
+        <v>9904.965722050958</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" s="2"/>
       <c r="B213" s="1" t="s">
         <v>148</v>
       </c>
@@ -3749,25 +3812,25 @@
         <v>23</v>
       </c>
       <c r="D213">
-        <v>2185.531516417895</v>
+        <v>2185.5315164178951</v>
       </c>
       <c r="E213">
-        <v>950.2548879891278</v>
+        <v>950.25488798912784</v>
       </c>
       <c r="F213">
-        <v>620.5362044090547</v>
+        <v>778.90989661932781</v>
       </c>
       <c r="G213">
-        <v>778.9098966193278</v>
+        <v>778.90989661932781</v>
       </c>
       <c r="H213">
-        <v>778.9098966193278</v>
+        <v>778.90989661932781</v>
       </c>
       <c r="I213">
-        <v>778.9098966193278</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>620.53620440905468</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>5</v>
       </c>
@@ -3776,25 +3839,25 @@
         <v>23</v>
       </c>
       <c r="D214">
-        <v>18723.11603363273</v>
+        <v>18722.909305372759</v>
       </c>
       <c r="E214">
-        <v>12228.49451952387</v>
+        <v>12227.366210889941</v>
       </c>
       <c r="F214">
-        <v>10526.70614840592</v>
+        <v>11822.315813952029</v>
       </c>
       <c r="G214">
-        <v>11823.44286751071</v>
+        <v>16746.687833300839</v>
       </c>
       <c r="H214">
-        <v>16749.1711626144</v>
+        <v>11960.734399333909</v>
       </c>
       <c r="I214">
-        <v>11961.86708154622</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>10525.501926460011</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>6</v>
       </c>
@@ -3803,25 +3866,25 @@
         <v>24</v>
       </c>
       <c r="D215">
-        <v>61786.282910988</v>
+        <v>61785.600707730096</v>
       </c>
       <c r="E215">
-        <v>40354.03191442875</v>
+        <v>40350.308495936792</v>
       </c>
       <c r="F215">
-        <v>34738.13028973955</v>
+        <v>39013.642186041718</v>
       </c>
       <c r="G215">
-        <v>39017.36146278534</v>
+        <v>55264.069849892781</v>
       </c>
       <c r="H215">
-        <v>55272.26483662751</v>
+        <v>39470.423517801893</v>
       </c>
       <c r="I215">
-        <v>39474.16136910251</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>34734.156357318039</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>7</v>
       </c>
@@ -3830,25 +3893,25 @@
         <v>24</v>
       </c>
       <c r="D216">
-        <v>2.443270232283064</v>
+        <v>2.4432736586228692</v>
       </c>
       <c r="E216">
-        <v>0.8891543540558613</v>
+        <v>0.88889349635213233</v>
       </c>
       <c r="F216">
-        <v>0.5795127051785172</v>
+        <v>0.85386587255933222</v>
       </c>
       <c r="G216">
-        <v>0.8541256244125875</v>
+        <v>0.67429317778587905</v>
       </c>
       <c r="H216">
-        <v>0.6746328620095042</v>
+        <v>0.86172097013080007</v>
       </c>
       <c r="I216">
-        <v>0.8619825459634969</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>0.57923640359340967</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>153</v>
       </c>
@@ -3860,8 +3923,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
-      <c r="A220" s="1" t="s">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B220" s="1" t="s">
@@ -3871,11 +3934,11 @@
         <v>45</v>
       </c>
       <c r="D220">
-        <v>261.8441119228262</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
-      <c r="A221" s="1"/>
+        <v>261.84453087318462</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" s="2"/>
       <c r="B221" s="1" t="s">
         <v>35</v>
       </c>
@@ -3883,11 +3946,11 @@
         <v>24</v>
       </c>
       <c r="D221">
-        <v>20.47620955236501</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
-      <c r="A222" s="1" t="s">
+        <v>20.476242314283041</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B222" s="1" t="s">
@@ -3897,11 +3960,11 @@
         <v>130</v>
       </c>
       <c r="D222">
-        <v>187.0315085163045</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
-      <c r="A223" s="1"/>
+        <v>187.03180776656049</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" s="2"/>
       <c r="B223" s="1" t="s">
         <v>129</v>
       </c>
@@ -3909,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>4</v>
       </c>
@@ -3920,10 +3983,10 @@
         <v>23</v>
       </c>
       <c r="D224">
-        <v>611309.5762833187</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>611310.1377095466</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>5</v>
       </c>
@@ -3932,10 +3995,10 @@
         <v>23</v>
       </c>
       <c r="D225">
-        <v>611309.5762833187</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>611310.1377095466</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>6</v>
       </c>
@@ -3944,10 +4007,10 @@
         <v>24</v>
       </c>
       <c r="D226">
-        <v>1240958.439855137</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+        <v>1240959.579550379</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>7</v>
       </c>
@@ -3956,10 +4019,10 @@
         <v>24</v>
       </c>
       <c r="D227">
-        <v>20.47620955236501</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
+        <v>20.476242314283041</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>160</v>
       </c>
@@ -3986,8 +4049,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
-      <c r="A231" s="1" t="s">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B231" s="1" t="s">
@@ -3997,7 +4060,7 @@
         <v>104</v>
       </c>
       <c r="D231">
-        <v>168</v>
+        <v>0.25</v>
       </c>
       <c r="E231">
         <v>168</v>
@@ -4006,7 +4069,7 @@
         <v>168</v>
       </c>
       <c r="G231">
-        <v>0.25</v>
+        <v>168</v>
       </c>
       <c r="H231">
         <v>168</v>
@@ -4015,8 +4078,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
-      <c r="A232" s="1"/>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" s="2"/>
       <c r="B232" s="1" t="s">
         <v>162</v>
       </c>
@@ -4024,26 +4087,26 @@
         <v>165</v>
       </c>
       <c r="D232">
-        <v>9.698734824930513</v>
+        <v>8.2370705841582357</v>
       </c>
       <c r="E232">
-        <v>0.2007925850392042</v>
+        <v>655.01716442329553</v>
       </c>
       <c r="F232">
-        <v>655.017169575882</v>
+        <v>780.49950500392322</v>
       </c>
       <c r="G232">
-        <v>8.242171132099656</v>
+        <v>9.6987348249305114</v>
       </c>
       <c r="H232">
-        <v>780.4995050038758</v>
+        <v>2250.256878889968</v>
       </c>
       <c r="I232">
-        <v>2250.256878889973</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
-      <c r="A233" s="1"/>
+        <v>0.2006653904247368</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233" s="2"/>
       <c r="B233" s="1" t="s">
         <v>163</v>
       </c>
@@ -4066,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>4</v>
       </c>
@@ -4077,25 +4140,25 @@
         <v>23</v>
       </c>
       <c r="D234">
-        <v>71870.93620191589</v>
+        <v>71620.382775443679</v>
       </c>
       <c r="E234">
-        <v>70242.83180813085</v>
+        <v>430371.1637965343</v>
       </c>
       <c r="F234">
-        <v>430371.165512955</v>
+        <v>470366.06312390958</v>
       </c>
       <c r="G234">
-        <v>71621.25709372277</v>
+        <v>71870.936201915887</v>
       </c>
       <c r="H234">
-        <v>470366.0631238952</v>
+        <v>804608.70925379999</v>
       </c>
       <c r="I234">
-        <v>804608.7092538007</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
+        <v>70242.810004870174</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>5</v>
       </c>
@@ -4104,25 +4167,25 @@
         <v>23</v>
       </c>
       <c r="D235">
-        <v>71870.93620191589</v>
+        <v>71620.382775443679</v>
       </c>
       <c r="E235">
-        <v>70242.83180813085</v>
+        <v>430371.1637965343</v>
       </c>
       <c r="F235">
-        <v>430371.165512955</v>
+        <v>470366.06312390958</v>
       </c>
       <c r="G235">
-        <v>71621.25709372277</v>
+        <v>71870.936201915887</v>
       </c>
       <c r="H235">
-        <v>470366.0631238952</v>
+        <v>804608.70925379999</v>
       </c>
       <c r="I235">
-        <v>804608.7092538007</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
+        <v>70242.810004870174</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>6</v>
       </c>
@@ -4131,25 +4194,25 @@
         <v>24</v>
       </c>
       <c r="D236">
-        <v>165303.1532644065</v>
+        <v>164726.88038352039</v>
       </c>
       <c r="E236">
-        <v>161558.513158701</v>
+        <v>989853.67673202883</v>
       </c>
       <c r="F236">
-        <v>989853.6806797964</v>
+        <v>1081841.9451849919</v>
       </c>
       <c r="G236">
-        <v>164728.8913155624</v>
+        <v>165303.15326440649</v>
       </c>
       <c r="H236">
-        <v>1081841.945184959</v>
+        <v>1850600.03128374</v>
       </c>
       <c r="I236">
-        <v>1850600.031283741</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
+        <v>161558.46301120141</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>7</v>
       </c>
@@ -4176,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>167</v>
       </c>
@@ -4188,8 +4251,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="1" t="s">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B241" s="1" t="s">
@@ -4202,8 +4265,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="1"/>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="2"/>
       <c r="B242" s="1" t="s">
         <v>162</v>
       </c>
@@ -4211,11 +4274,11 @@
         <v>165</v>
       </c>
       <c r="D242">
-        <v>5.66173157595156</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="1"/>
+        <v>5.6596837697919069</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="2"/>
       <c r="B243" s="1" t="s">
         <v>163</v>
       </c>
@@ -4223,7 +4286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>4</v>
       </c>
@@ -4234,10 +4297,10 @@
         <v>23</v>
       </c>
       <c r="D244">
-        <v>71178.92707389846</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>71178.576046052418</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>5</v>
       </c>
@@ -4246,10 +4309,10 @@
         <v>23</v>
       </c>
       <c r="D245">
-        <v>71178.92707389846</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>71178.576046052418</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>6</v>
       </c>
@@ -4258,10 +4321,10 @@
         <v>24</v>
       </c>
       <c r="D246">
-        <v>163711.5322699664</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+        <v>163710.72490592051</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>7</v>
       </c>
@@ -4275,46 +4338,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="A231:A233"/>
+    <mergeCell ref="A241:A243"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="A204:A211"/>
+    <mergeCell ref="A146:A152"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="A166:A173"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="A129:A134"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A146:A152"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="A166:A173"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="A204:A211"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="A231:A233"/>
-    <mergeCell ref="A241:A243"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/LAOs/results/Equipment list.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/LAOs/results/Equipment list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="172">
   <si>
     <t>Units</t>
   </si>
@@ -106,15 +106,15 @@
     <t>Power</t>
   </si>
   <si>
+    <t>Medium pressure steam</t>
+  </si>
+  <si>
     <t>Low pressure steam</t>
   </si>
   <si>
     <t>High pressure steam</t>
   </si>
   <si>
-    <t>Medium pressure steam</t>
-  </si>
-  <si>
     <t>Cooling water</t>
   </si>
   <si>
@@ -214,13 +214,13 @@
     <t>Bag unloader</t>
   </si>
   <si>
-    <t>D102</t>
+    <t>D103</t>
   </si>
   <si>
     <t>D101</t>
   </si>
   <si>
-    <t>D103</t>
+    <t>D104</t>
   </si>
   <si>
     <t>Distillation</t>
@@ -238,46 +238,16 @@
     <t>Reflux</t>
   </si>
   <si>
-    <t>Rectifier stages</t>
-  </si>
-  <si>
-    <t>Stripper stages</t>
-  </si>
-  <si>
-    <t>Rectifier height</t>
-  </si>
-  <si>
-    <t>Stripper height</t>
-  </si>
-  <si>
-    <t>Rectifier diameter</t>
-  </si>
-  <si>
-    <t>Stripper diameter</t>
-  </si>
-  <si>
-    <t>Rectifier wall thickness</t>
-  </si>
-  <si>
-    <t>Stripper wall thickness</t>
-  </si>
-  <si>
-    <t>Rectifier weight</t>
-  </si>
-  <si>
-    <t>Stripper weight</t>
-  </si>
-  <si>
-    <t>Rectifier trays</t>
-  </si>
-  <si>
-    <t>Stripper trays</t>
-  </si>
-  <si>
-    <t>Rectifier tower</t>
-  </si>
-  <si>
-    <t>Stripper tower</t>
+    <t>Actual stages</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Trays</t>
+  </si>
+  <si>
+    <t>Tower</t>
   </si>
   <si>
     <t>Condenser</t>
@@ -331,30 +301,30 @@
     <t>hr</t>
   </si>
   <si>
+    <t>H101</t>
+  </si>
+  <si>
+    <t>H107</t>
+  </si>
+  <si>
     <t>H108</t>
   </si>
   <si>
+    <t>H105</t>
+  </si>
+  <si>
     <t>H106</t>
   </si>
   <si>
-    <t>H101</t>
+    <t>H109</t>
   </si>
   <si>
     <t>H103</t>
   </si>
   <si>
-    <t>H109</t>
-  </si>
-  <si>
-    <t>H105</t>
-  </si>
-  <si>
     <t>H104</t>
   </si>
   <si>
-    <t>H102</t>
-  </si>
-  <si>
     <t>Heat Exchanger</t>
   </si>
   <si>
@@ -382,7 +352,7 @@
     <t>Total tube length</t>
   </si>
   <si>
-    <t>Floating head</t>
+    <t>Double pipe</t>
   </si>
   <si>
     <t>ft^2</t>
@@ -397,7 +367,7 @@
     <t>psi</t>
   </si>
   <si>
-    <t>C103</t>
+    <t>C102</t>
   </si>
   <si>
     <t>Liquids centrifuge</t>
@@ -469,24 +439,24 @@
     <t>Horizontal</t>
   </si>
   <si>
-    <t>P107</t>
-  </si>
-  <si>
     <t>P104</t>
   </si>
   <si>
     <t>P105</t>
   </si>
   <si>
+    <t>P102</t>
+  </si>
+  <si>
+    <t>P106</t>
+  </si>
+  <si>
+    <t>P109</t>
+  </si>
+  <si>
     <t>P108</t>
   </si>
   <si>
-    <t>P102</t>
-  </si>
-  <si>
-    <t>P109</t>
-  </si>
-  <si>
     <t>Ideal power</t>
   </si>
   <si>
@@ -523,22 +493,22 @@
     <t>Solid liquids split centrifuge</t>
   </si>
   <si>
+    <t>T105</t>
+  </si>
+  <si>
+    <t>T101</t>
+  </si>
+  <si>
     <t>T102</t>
   </si>
   <si>
+    <t>T109</t>
+  </si>
+  <si>
     <t>T110</t>
   </si>
   <si>
-    <t>T101</t>
-  </si>
-  <si>
     <t>T104</t>
-  </si>
-  <si>
-    <t>T108</t>
-  </si>
-  <si>
-    <t>T105</t>
   </si>
   <si>
     <t>Storage tank</t>
@@ -917,7 +887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K257"/>
+  <dimension ref="A2:K253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,7 +916,7 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>88578.42715222515</v>
+        <v>88571.27634870414</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -958,7 +928,7 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>1180.422860887806</v>
+        <v>1180.327567121352</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -979,7 +949,7 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>28.86395935777999</v>
+        <v>28.86318262216755</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -991,7 +961,7 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>14.43197967889</v>
+        <v>14.43159131108377</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1003,7 +973,7 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>33546.62</v>
+        <v>33544.14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1015,7 +985,7 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <v>0.4857633006511161</v>
+        <v>0.4857535924298771</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1038,7 +1008,7 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>196527.1786885519</v>
+        <v>196517.8738361489</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1050,7 +1020,7 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>858324.9591050617</v>
+        <v>858255.667818943</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1062,7 +1032,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>1054852.137793614</v>
+        <v>1054773.541655092</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1074,7 +1044,7 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>1675878.022449438</v>
+        <v>1675770.022977323</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1112,7 +1082,7 @@
         <v>45</v>
       </c>
       <c r="D19">
-        <v>-3028.051510719671</v>
+        <v>-3614.703247727842</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1124,7 +1094,7 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>-236.7936281382783</v>
+        <v>-282.6697939723172</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1138,7 +1108,7 @@
         <v>46</v>
       </c>
       <c r="D21">
-        <v>-857249.2941486052</v>
+        <v>-54818382.99547782</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1150,7 +1120,7 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>-22.08371643577176</v>
+        <v>-1711.803592744462</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1162,7 +1132,7 @@
         <v>24</v>
       </c>
       <c r="D23">
-        <v>-5.251507768426524</v>
+        <v>-545.6813367496836</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1176,7 +1146,7 @@
         <v>46</v>
       </c>
       <c r="D24">
-        <v>-18553484.2457667</v>
+        <v>-934337.6644194166</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1188,7 +1158,7 @@
         <v>47</v>
       </c>
       <c r="D25">
-        <v>-1415.664770291307</v>
+        <v>-24.06960049677545</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1200,7 +1170,7 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>-582.1154539696978</v>
+        <v>-5.723750998133202</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1214,7 +1184,7 @@
         <v>46</v>
       </c>
       <c r="D27">
-        <v>-41320019.40963284</v>
+        <v>-5707654.351183286</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1226,7 +1196,7 @@
         <v>47</v>
       </c>
       <c r="D28">
-        <v>-1290.292668492526</v>
+        <v>-435.504462608617</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1238,7 +1208,7 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>-411.3139095662738</v>
+        <v>-179.0776201240621</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1252,7 +1222,7 @@
         <v>46</v>
       </c>
       <c r="D30">
-        <v>-2084444.596333036</v>
+        <v>-2427937.838923048</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1264,7 +1234,7 @@
         <v>47</v>
       </c>
       <c r="D31">
-        <v>1424.498853461624</v>
+        <v>1659.239828983601</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1276,7 +1246,7 @@
         <v>24</v>
       </c>
       <c r="D32">
-        <v>0.6949417656612533</v>
+        <v>0.80946015056965</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1290,7 +1260,7 @@
         <v>48</v>
       </c>
       <c r="D33">
-        <v>60392.01837587349</v>
+        <v>49420.11722025538</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1302,7 +1272,7 @@
         <v>45</v>
       </c>
       <c r="D34">
-        <v>3281.070197931629</v>
+        <v>3821.754005712203</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1316,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="D35">
-        <v>12891751.88373941</v>
+        <v>11430532.80615333</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1328,7 +1298,7 @@
         <v>23</v>
       </c>
       <c r="D36">
-        <v>138730.5913218714</v>
+        <v>123006.1352112938</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1340,7 +1310,7 @@
         <v>23</v>
       </c>
       <c r="D37">
-        <v>18194.17591106511</v>
+        <v>16131.95215885821</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1352,7 +1322,7 @@
         <v>23</v>
       </c>
       <c r="D38">
-        <v>35478.64302657696</v>
+        <v>31457.3067097735</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1364,7 +1334,7 @@
         <v>23</v>
       </c>
       <c r="D39">
-        <v>2113293.002493465</v>
+        <v>2315837.272193965</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1376,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="D40">
-        <v>15197448.29649239</v>
+        <v>13916965.47242722</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1388,7 +1358,7 @@
         <v>24</v>
       </c>
       <c r="D41">
-        <v>27521883.64327255</v>
+        <v>25198145.21262255</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1400,7 +1370,7 @@
         <v>24</v>
       </c>
       <c r="D42">
-        <v>-782.830438083826</v>
+        <v>-542.0899168330425</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1426,7 +1396,7 @@
         <v>45</v>
       </c>
       <c r="D46">
-        <v>2.867556338964718</v>
+        <v>6.666284561036007</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1438,7 +1408,7 @@
         <v>24</v>
       </c>
       <c r="D47">
-        <v>0.2242429057070409</v>
+        <v>0.5213034526730158</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1452,7 +1422,7 @@
         <v>48</v>
       </c>
       <c r="D48">
-        <v>510.1637937096946</v>
+        <v>1185.991352774722</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1466,7 +1436,7 @@
         <v>23</v>
       </c>
       <c r="D49">
-        <v>37672.49334595392</v>
+        <v>67996.20697150748</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1478,7 +1448,7 @@
         <v>23</v>
       </c>
       <c r="D50">
-        <v>1460.237278084636</v>
+        <v>2867.615653922742</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1490,7 +1460,7 @@
         <v>23</v>
       </c>
       <c r="D51">
-        <v>13947.95322677169</v>
+        <v>21266.51990169647</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1502,7 +1472,7 @@
         <v>23</v>
       </c>
       <c r="D52">
-        <v>53080.68385081024</v>
+        <v>92130.34252712669</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1514,7 +1484,7 @@
         <v>24</v>
       </c>
       <c r="D53">
-        <v>123397.1481017001</v>
+        <v>217579.5265056247</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1526,7 +1496,7 @@
         <v>24</v>
       </c>
       <c r="D54">
-        <v>0.2242429057070409</v>
+        <v>0.5213034526730158</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1549,7 +1519,7 @@
         <v>9</v>
       </c>
       <c r="D58">
-        <v>9573.037915390658</v>
+        <v>9930.434568241539</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1563,7 +1533,7 @@
         <v>23</v>
       </c>
       <c r="D59">
-        <v>6165515.069407353</v>
+        <v>6395696.383675963</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1575,7 +1545,7 @@
         <v>23</v>
       </c>
       <c r="D60">
-        <v>6165515.069407353</v>
+        <v>6395696.383675963</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1587,7 +1557,7 @@
         <v>24</v>
       </c>
       <c r="D61">
-        <v>6165515.069407353</v>
+        <v>6395696.383675963</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1625,7 +1595,7 @@
         <v>45</v>
       </c>
       <c r="D66">
-        <v>1999.073361586406</v>
+        <v>1998.667164291347</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1637,7 +1607,7 @@
         <v>24</v>
       </c>
       <c r="D67">
-        <v>156.327536876057</v>
+        <v>156.2957722475833</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1651,7 +1621,7 @@
         <v>46</v>
       </c>
       <c r="D68">
-        <v>-46185471.69587412</v>
+        <v>-46176087.14099264</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1663,7 +1633,7 @@
         <v>47</v>
       </c>
       <c r="D69">
-        <v>31562.91685233422</v>
+        <v>31556.49279922971</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1675,7 +1645,7 @@
         <v>24</v>
       </c>
       <c r="D70">
-        <v>15.39796898641125</v>
+        <v>15.39483501210421</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1689,7 +1659,7 @@
         <v>46</v>
       </c>
       <c r="D71">
-        <v>46185471.69587412</v>
+        <v>46176087.14099264</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1701,7 +1671,7 @@
         <v>47</v>
       </c>
       <c r="D72">
-        <v>-30608.66130019043</v>
+        <v>-30602.43146830959</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1713,7 +1683,7 @@
         <v>24</v>
       </c>
       <c r="D73">
-        <v>-230.9273584793706</v>
+        <v>-230.8804357049632</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1727,7 +1697,7 @@
         <v>46</v>
       </c>
       <c r="D74">
-        <v>-46185471.69587412</v>
+        <v>-46176087.14099264</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1741,7 +1711,7 @@
         <v>23</v>
       </c>
       <c r="D75">
-        <v>1199131.842135328</v>
+        <v>1198961.278474678</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1753,7 +1723,7 @@
         <v>23</v>
       </c>
       <c r="D76">
-        <v>1199131.842135328</v>
+        <v>1198961.278474678</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1765,7 +1735,7 @@
         <v>24</v>
       </c>
       <c r="D77">
-        <v>1798697.763202992</v>
+        <v>1798441.917712017</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1777,7 +1747,7 @@
         <v>24</v>
       </c>
       <c r="D78">
-        <v>-59.20185261690239</v>
+        <v>-59.18982844527568</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1803,7 +1773,7 @@
         <v>45</v>
       </c>
       <c r="D82">
-        <v>290.3779697353694</v>
+        <v>289.4663171749546</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1815,7 +1785,7 @@
         <v>24</v>
       </c>
       <c r="D83">
-        <v>22.70755723330589</v>
+        <v>22.63626600308145</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1829,7 +1799,7 @@
         <v>46</v>
       </c>
       <c r="D84">
-        <v>90397053.65419522</v>
+        <v>89825083.04507092</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1841,7 +1811,7 @@
         <v>47</v>
       </c>
       <c r="D85">
-        <v>-61776.88748035982</v>
+        <v>-61582.93661798118</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1853,7 +1823,7 @@
         <v>24</v>
       </c>
       <c r="D86">
-        <v>-30.13785455729354</v>
+        <v>-30.04323562908212</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1867,7 +1837,7 @@
         <v>47</v>
       </c>
       <c r="D87">
-        <v>61776.88748035982</v>
+        <v>61582.93661798118</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1881,7 +1851,7 @@
         <v>23</v>
       </c>
       <c r="D88">
-        <v>303736.2882111172</v>
+        <v>303068.4593771751</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1893,7 +1863,7 @@
         <v>23</v>
       </c>
       <c r="D89">
-        <v>50291.17000900388</v>
+        <v>50164.8174865181</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1905,7 +1875,7 @@
         <v>23</v>
       </c>
       <c r="D90">
-        <v>354027.4582201211</v>
+        <v>353233.2768636932</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1917,7 +1887,7 @@
         <v>24</v>
       </c>
       <c r="D91">
-        <v>611507.0593445878</v>
+        <v>610113.6232739687</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1929,7 +1899,7 @@
         <v>24</v>
       </c>
       <c r="D92">
-        <v>-7.430297323987645</v>
+        <v>-7.406969626000674</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1955,7 +1925,7 @@
         <v>45</v>
       </c>
       <c r="D96">
-        <v>1.398326590524213</v>
+        <v>3.909837223851285</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -1967,7 +1937,7 @@
         <v>24</v>
       </c>
       <c r="D97">
-        <v>0.1093491393789934</v>
+        <v>0.3057492709051705</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -1981,7 +1951,7 @@
         <v>48</v>
       </c>
       <c r="D98">
-        <v>50.89138237779862</v>
+        <v>142.2965296822202</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -1995,7 +1965,7 @@
         <v>23</v>
       </c>
       <c r="D99">
-        <v>49092.50410107778</v>
+        <v>100832.4286218063</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2007,7 +1977,7 @@
         <v>23</v>
       </c>
       <c r="D100">
-        <v>1285.233190269256</v>
+        <v>2925.647382269893</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2019,7 +1989,7 @@
         <v>23</v>
       </c>
       <c r="D101">
-        <v>5953.190229420705</v>
+        <v>9954.622393719332</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2031,7 +2001,7 @@
         <v>23</v>
       </c>
       <c r="D102">
-        <v>16221.48479038281</v>
+        <v>30062.1917185513</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2043,7 +2013,7 @@
         <v>23</v>
       </c>
       <c r="D103">
-        <v>72552.41231115055</v>
+        <v>143774.8901163468</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2055,7 +2025,7 @@
         <v>24</v>
       </c>
       <c r="D104">
-        <v>128857.0397595565</v>
+        <v>256605.5379164042</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2067,7 +2037,7 @@
         <v>24</v>
       </c>
       <c r="D105">
-        <v>0.1093491393789934</v>
+        <v>0.3057492709051705</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2099,13 +2069,13 @@
         <v>46</v>
       </c>
       <c r="D109">
-        <v>-3948001.134669721</v>
+        <v>-388835.2068998073</v>
       </c>
       <c r="E109">
-        <v>-5486178.901096314</v>
+        <v>-15021304.11478393</v>
       </c>
       <c r="F109">
-        <v>-389575.8403276557</v>
+        <v>-2162865.832975455</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2117,13 +2087,13 @@
         <v>47</v>
       </c>
       <c r="D110">
-        <v>2698.043929637582</v>
+        <v>265.727916034875</v>
       </c>
       <c r="E110">
-        <v>3749.226805186058</v>
+        <v>10265.47948261319</v>
       </c>
       <c r="F110">
-        <v>266.2341512263579</v>
+        <v>1478.091027409705</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2135,18 +2105,18 @@
         <v>24</v>
       </c>
       <c r="D111">
-        <v>1.316240731073695</v>
+        <v>0.1296353638376138</v>
       </c>
       <c r="E111">
-        <v>1.829060296910019</v>
+        <v>5.008014165592844</v>
       </c>
       <c r="F111">
-        <v>0.1298823306757787</v>
+        <v>0.7210867077218248</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>36</v>
@@ -2155,13 +2125,13 @@
         <v>46</v>
       </c>
       <c r="D112">
-        <v>4464790.90834837</v>
+        <v>4270310.290900334</v>
       </c>
       <c r="E112">
-        <v>27141442.67045908</v>
+        <v>40068574.20556699</v>
       </c>
       <c r="F112">
-        <v>4221197.481297144</v>
+        <v>5492165.159750871</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2173,13 +2143,13 @@
         <v>47</v>
       </c>
       <c r="D113">
-        <v>139.4212069041518</v>
+        <v>133.3481963285905</v>
       </c>
       <c r="E113">
-        <v>847.540852844792</v>
+        <v>1251.214018605691</v>
       </c>
       <c r="F113">
-        <v>131.814559629831</v>
+        <v>171.5028342441818</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2191,13 +2161,13 @@
         <v>24</v>
       </c>
       <c r="D114">
-        <v>44.44408860758183</v>
+        <v>42.5081605939864</v>
       </c>
       <c r="E114">
-        <v>270.175403002179</v>
+        <v>398.8565867758521</v>
       </c>
       <c r="F114">
-        <v>42.01927452819325</v>
+        <v>54.67093084942194</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2211,10 +2181,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2223,13 +2193,13 @@
         <v>71</v>
       </c>
       <c r="D116">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E116">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F116">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2238,16 +2208,16 @@
         <v>72</v>
       </c>
       <c r="C117" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D117">
-        <v>0.3</v>
+        <v>0.3342914340295329</v>
       </c>
       <c r="E117">
-        <v>0.3</v>
+        <v>0.6470277330768888</v>
       </c>
       <c r="F117">
-        <v>0.3350723752843767</v>
+        <v>1.276063143674178</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2256,16 +2226,16 @@
         <v>73</v>
       </c>
       <c r="C118" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D118">
-        <v>0.315</v>
+        <v>0.3510060057310095</v>
       </c>
       <c r="E118">
-        <v>0.315</v>
+        <v>0.6793791197307333</v>
       </c>
       <c r="F118">
-        <v>0.3518259940485955</v>
+        <v>1.339866300857887</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2274,10 +2244,10 @@
         <v>74</v>
       </c>
       <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="F119">
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2285,2164 +2255,2082 @@
       <c r="B120" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="C120" t="s">
+        <v>20</v>
+      </c>
       <c r="D120">
-        <v>87</v>
-      </c>
-      <c r="E120">
-        <v>40</v>
+        <v>109.936416</v>
+      </c>
+      <c r="F120">
+        <v>101.080416</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
         <v>20</v>
       </c>
       <c r="D121">
-        <v>13.996416</v>
-      </c>
-      <c r="E121">
-        <v>19.900416</v>
+        <v>2.99792</v>
+      </c>
+      <c r="F121">
+        <v>3.729631165929854</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D122">
-        <v>140.932416</v>
-      </c>
-      <c r="E122">
-        <v>71.56041599999999</v>
+        <v>1.125</v>
+      </c>
+      <c r="F122">
+        <v>0.75</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D123">
-        <v>5.549304248482765</v>
-      </c>
-      <c r="E123">
-        <v>5.9384190250405</v>
+        <v>51082.24699436999</v>
+      </c>
+      <c r="F123">
+        <v>38695.0882614455</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B124" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D124">
-        <v>2.99792</v>
-      </c>
-      <c r="E124">
-        <v>7.069663226291479</v>
+        <v>60828.59106274766</v>
+      </c>
+      <c r="F124">
+        <v>63551.69994997628</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C125" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D125">
-        <v>0.3125</v>
-      </c>
-      <c r="E125">
-        <v>0.3125</v>
+        <v>348818.5213161081</v>
+      </c>
+      <c r="F125">
+        <v>306611.4465655746</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C126" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D126">
-        <v>1.75</v>
+        <v>5046.15245380719</v>
       </c>
       <c r="E126">
-        <v>0.375</v>
+        <v>95913.8030212552</v>
+      </c>
+      <c r="F126">
+        <v>75242.51976241112</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C127" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D127">
-        <v>24022.37065550823</v>
+        <v>5945.351547653983</v>
       </c>
       <c r="E127">
-        <v>7214.87704697407</v>
+        <v>798228.1292644773</v>
+      </c>
+      <c r="F127">
+        <v>87478.75964474813</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="A128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="1"/>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D128">
-        <v>103094.6428787647</v>
+        <v>420638.6163803169</v>
       </c>
       <c r="E128">
-        <v>26882.13795543463</v>
+        <v>1435158.82737056</v>
+      </c>
+      <c r="F128">
+        <v>532884.4259227101</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B129" s="1"/>
       <c r="C129" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D129">
+        <v>1781267.29043171</v>
+      </c>
+      <c r="E129">
+        <v>5160802.574210532</v>
+      </c>
+      <c r="F129">
+        <v>2107527.985737564</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130">
+        <v>42.63779595782402</v>
+      </c>
+      <c r="E130">
+        <v>403.8646009414449</v>
+      </c>
+      <c r="F130">
+        <v>55.39201755714376</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E129">
-        <v>12268.73531135384</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C130" t="s">
-        <v>23</v>
-      </c>
-      <c r="D130">
-        <v>87867.64369550682</v>
-      </c>
-      <c r="E130">
-        <v>73943.81057377654</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C131" t="s">
-        <v>23</v>
-      </c>
-      <c r="D131">
-        <v>188513.7634329276</v>
-      </c>
-      <c r="E131">
-        <v>107880.3216832544</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C132" t="s">
-        <v>23</v>
-      </c>
-      <c r="D132">
-        <v>539766.8531757435</v>
-      </c>
-      <c r="E132">
-        <v>267846.2169346404</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C133" t="s">
-        <v>23</v>
-      </c>
-      <c r="D133">
-        <v>77002.79243398552</v>
-      </c>
-      <c r="E133">
-        <v>78838.59314252876</v>
-      </c>
-      <c r="F133">
-        <v>5047.448517570288</v>
+      <c r="D133" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="1"/>
+      <c r="A134" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B134" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D134">
-        <v>170082.4058438159</v>
-      </c>
-      <c r="E134">
-        <v>562768.7106233282</v>
-      </c>
-      <c r="F134">
-        <v>5937.65231084866</v>
+        <v>275.4117040664958</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B135" s="1"/>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C135" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D135">
-        <v>1063233.458581979</v>
-      </c>
-      <c r="E135">
-        <v>1103546.388268882</v>
-      </c>
-      <c r="F135">
-        <v>420632.2132072747</v>
+        <v>21.53719525799997</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B136" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C136" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D136">
-        <v>4292697.597848596</v>
-      </c>
-      <c r="E136">
-        <v>4020233.216300774</v>
-      </c>
-      <c r="F136">
-        <v>1781255.764720234</v>
+        <v>-46176087.14099264</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B137" s="1"/>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C137" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D137">
-        <v>45.76032933865552</v>
-      </c>
-      <c r="E137">
-        <v>272.004463299089</v>
-      </c>
-      <c r="F137">
-        <v>42.14915685886903</v>
+        <v>30602.43146830959</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C138" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138">
+        <v>230.8804357049632</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C139" t="s">
+        <v>93</v>
+      </c>
+      <c r="D139">
+        <v>3584.425234220425</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>90</v>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C140" t="s">
+        <v>94</v>
+      </c>
+      <c r="D140">
+        <v>89.91666666666667</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C141" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="D141">
-        <v>270.1161930880234</v>
+        <v>6.916666666666666</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C142" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D142">
-        <v>21.12308629948343</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C143" t="s">
         <v>46</v>
       </c>
       <c r="D143">
-        <v>-46185471.69587412</v>
+        <v>46176087.14099264</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C144" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="D144">
-        <v>30608.66130019043</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C145" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D145">
-        <v>230.9273584793706</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C146" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="D146">
-        <v>3515.505275848776</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>190570.83077403</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C147" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D147">
-        <v>219.9166666666667</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>11610239.77956619</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C148" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D148">
-        <v>16.91666666666666</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>722200.9341554798</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C149" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149">
+        <v>443070.5151834512</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150">
+        <v>12966082.05967915</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" t="s">
+        <v>24</v>
+      </c>
+      <c r="D151">
+        <v>19715443.82561558</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152">
+        <v>252.4176309629632</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D149">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C150" t="s">
+      <c r="F155" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" t="s">
         <v>46</v>
       </c>
-      <c r="D150">
-        <v>46185471.69587412</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="D156">
+        <v>934337.6644194166</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C157" t="s">
+        <v>47</v>
+      </c>
+      <c r="D157">
+        <v>24.06960049677545</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C158" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158">
+        <v>5.723750998133202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D151">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D152">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C153" t="s">
-        <v>23</v>
-      </c>
-      <c r="D153">
-        <v>190597.9412896851</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C154" t="s">
-        <v>23</v>
-      </c>
-      <c r="D154">
-        <v>11498079.39204778</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C155" t="s">
-        <v>23</v>
-      </c>
-      <c r="D155">
-        <v>715224.1327991808</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C156" t="s">
-        <v>23</v>
-      </c>
-      <c r="D156">
-        <v>437939.165988051</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="1" t="s">
+      <c r="C159" t="s">
+        <v>113</v>
+      </c>
+      <c r="D159">
+        <v>51.87731940674384</v>
+      </c>
+      <c r="E159">
+        <v>371.2894770203915</v>
+      </c>
+      <c r="F159">
+        <v>824.1385547925145</v>
+      </c>
+      <c r="G159">
+        <v>871.0980751066345</v>
+      </c>
+      <c r="H159">
+        <v>472.2561008827879</v>
+      </c>
+      <c r="I159">
+        <v>1801.558842227835</v>
+      </c>
+      <c r="J159">
+        <v>1709.294163704897</v>
+      </c>
+      <c r="K159">
+        <v>12091.13431366226</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C160" t="s">
+        <v>114</v>
+      </c>
+      <c r="D160">
+        <v>0.5</v>
+      </c>
+      <c r="E160">
+        <v>0.5</v>
+      </c>
+      <c r="F160">
+        <v>0.5</v>
+      </c>
+      <c r="G160">
+        <v>0.5</v>
+      </c>
+      <c r="H160">
+        <v>0.5</v>
+      </c>
+      <c r="I160">
+        <v>0.5</v>
+      </c>
+      <c r="J160">
+        <v>0.5</v>
+      </c>
+      <c r="K160">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C161" t="s">
+        <v>115</v>
+      </c>
+      <c r="D161">
+        <v>102.3082767113998</v>
+      </c>
+      <c r="E161">
+        <v>35.96546232287139</v>
+      </c>
+      <c r="F161">
+        <v>21.09040727674859</v>
+      </c>
+      <c r="G161">
+        <v>8.968797108954364</v>
+      </c>
+      <c r="H161">
+        <v>14.93021158487228</v>
+      </c>
+      <c r="I161">
+        <v>44.74434810633918</v>
+      </c>
+      <c r="J161">
+        <v>18.96816398510796</v>
+      </c>
+      <c r="K161">
+        <v>15.47160317406087</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D162">
+        <v>0.9999999999999369</v>
+      </c>
+      <c r="E162">
+        <v>0.9482041545059831</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>0.946786682984018</v>
+      </c>
+      <c r="H162">
+        <v>0.9222910578338577</v>
+      </c>
+      <c r="I162">
+        <v>0.9532523453634423</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C163" t="s">
+        <v>116</v>
+      </c>
+      <c r="D163">
+        <v>1.5</v>
+      </c>
+      <c r="E163">
+        <v>1.5</v>
+      </c>
+      <c r="F163">
         <v>5</v>
       </c>
-      <c r="B157" s="1"/>
-      <c r="C157" t="s">
-        <v>23</v>
-      </c>
-      <c r="D157">
-        <v>12841840.6321247</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B158" s="1"/>
-      <c r="C158" t="s">
-        <v>24</v>
-      </c>
-      <c r="D158">
-        <v>19527561.25688624</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B159" s="1"/>
-      <c r="C159" t="s">
-        <v>24</v>
-      </c>
-      <c r="D159">
-        <v>252.0504447788541</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K162" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C163" t="s">
-        <v>123</v>
-      </c>
-      <c r="D163">
-        <v>819.6099264560638</v>
-      </c>
-      <c r="E163">
-        <v>471.6198208559024</v>
-      </c>
-      <c r="F163">
-        <v>47.42296808119413</v>
-      </c>
       <c r="G163">
-        <v>2387.756116614707</v>
+        <v>5</v>
       </c>
       <c r="H163">
-        <v>1794.293435086298</v>
+        <v>1.5</v>
       </c>
       <c r="I163">
-        <v>2191.872979768944</v>
+        <v>1.5</v>
       </c>
       <c r="J163">
-        <v>2659.010669690588</v>
+        <v>1.5</v>
       </c>
       <c r="K163">
-        <v>4643.291553777366</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C164" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D164">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="E164">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="F164">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G164">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H164">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I164">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J164">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="K164">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C165" t="s">
         <v>116</v>
       </c>
-      <c r="C165" t="s">
-        <v>125</v>
-      </c>
       <c r="D165">
-        <v>21.08739449268803</v>
+        <v>50.01380310880829</v>
       </c>
       <c r="E165">
-        <v>14.93261527141401</v>
+        <v>14.7</v>
       </c>
       <c r="F165">
-        <v>102.6840157830994</v>
+        <v>14.7</v>
       </c>
       <c r="G165">
-        <v>44.13874229037175</v>
+        <v>14.7</v>
       </c>
       <c r="H165">
-        <v>44.77891176459205</v>
+        <v>14.7</v>
       </c>
       <c r="I165">
-        <v>40.53849073553985</v>
+        <v>14.7</v>
       </c>
       <c r="J165">
-        <v>24.79827631310535</v>
+        <v>2709.531861458823</v>
       </c>
       <c r="K165">
-        <v>39.48069409650453</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+      <c r="C166" t="s">
+        <v>20</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E166">
-        <v>0.922297600031421</v>
+        <v>20</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H166">
-        <v>0.9532696204244923</v>
+        <v>20</v>
       </c>
       <c r="I166">
-        <v>0.9510110945945837</v>
+        <v>20</v>
       </c>
       <c r="J166">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K166">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B167" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C167" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="D167">
+        <v>4670.596361043651</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E167">
-        <v>1.5</v>
-      </c>
-      <c r="F167">
-        <v>1.5</v>
-      </c>
-      <c r="G167">
-        <v>1.5</v>
-      </c>
-      <c r="H167">
-        <v>1.5</v>
-      </c>
-      <c r="I167">
-        <v>5</v>
-      </c>
-      <c r="J167">
-        <v>5</v>
-      </c>
-      <c r="K167">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="B168" s="1"/>
       <c r="C168" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="D168">
-        <v>1.5</v>
+        <v>4670.596361043651</v>
       </c>
       <c r="E168">
-        <v>5</v>
+        <v>84702.85584514819</v>
       </c>
       <c r="F168">
-        <v>5</v>
+        <v>106497.8160125474</v>
       </c>
       <c r="G168">
-        <v>3</v>
+        <v>108670.2220567448</v>
       </c>
       <c r="H168">
-        <v>5</v>
+        <v>89666.33878962172</v>
       </c>
       <c r="I168">
-        <v>5</v>
+        <v>149093.9799232604</v>
       </c>
       <c r="J168">
-        <v>5</v>
+        <v>401352.6315076728</v>
       </c>
       <c r="K168">
-        <v>1.5</v>
+        <v>537428.9071064849</v>
       </c>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="A169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" s="1"/>
       <c r="C169" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="D169">
-        <v>14.7</v>
+        <v>8407.073449878571</v>
       </c>
       <c r="E169">
-        <v>14.7</v>
+        <v>268508.0530291198</v>
       </c>
       <c r="F169">
-        <v>50.01380310880829</v>
+        <v>337598.0767597751</v>
       </c>
       <c r="G169">
-        <v>2709.531861458823</v>
+        <v>344484.6039198809</v>
       </c>
       <c r="H169">
-        <v>14.7</v>
+        <v>284242.2939631008</v>
       </c>
       <c r="I169">
-        <v>14.7</v>
+        <v>472627.9163567356</v>
       </c>
       <c r="J169">
-        <v>14.7</v>
+        <v>1272287.841879323</v>
       </c>
       <c r="K169">
-        <v>73.5</v>
+        <v>1703649.635527557</v>
       </c>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="A170" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" s="1"/>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D170">
-        <v>20</v>
+        <v>5.723750998133202</v>
       </c>
       <c r="E170">
-        <v>20</v>
+        <v>0.7059878333093026</v>
       </c>
       <c r="F170">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>20</v>
+        <v>0.5085131231251548</v>
       </c>
       <c r="H170">
-        <v>20</v>
+        <v>0.3625839802886184</v>
       </c>
       <c r="I170">
-        <v>20</v>
+        <v>4.284415618708208</v>
       </c>
       <c r="J170">
-        <v>20</v>
+        <v>179.0776201240621</v>
       </c>
       <c r="K170">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C171" t="s">
-        <v>23</v>
-      </c>
-      <c r="D171">
-        <v>106287.4280706661</v>
-      </c>
-      <c r="E171">
-        <v>89635.1056531264</v>
-      </c>
-      <c r="G171">
-        <v>477833.7860645997</v>
-      </c>
-      <c r="H171">
-        <v>148792.6334305923</v>
-      </c>
-      <c r="I171">
-        <v>165061.2302463063</v>
-      </c>
-      <c r="J171">
-        <v>183710.4564111267</v>
-      </c>
-      <c r="K171">
-        <v>262890.9548208345</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" s="1"/>
-      <c r="C172" t="s">
-        <v>23</v>
-      </c>
-      <c r="D172">
-        <v>106287.4280706661</v>
-      </c>
-      <c r="E172">
-        <v>89635.1056531264</v>
-      </c>
-      <c r="F172">
-        <v>4603.987431406415</v>
-      </c>
-      <c r="G172">
-        <v>477833.7860645997</v>
-      </c>
-      <c r="H172">
-        <v>148792.6334305923</v>
-      </c>
-      <c r="I172">
-        <v>165061.2302463063</v>
-      </c>
-      <c r="J172">
-        <v>183710.4564111267</v>
-      </c>
-      <c r="K172">
-        <v>262890.9548208345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="1" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="B173" s="1"/>
-      <c r="C173" t="s">
-        <v>24</v>
-      </c>
-      <c r="D173">
-        <v>336931.1469840116</v>
-      </c>
-      <c r="E173">
-        <v>284143.2849204107</v>
-      </c>
-      <c r="F173">
-        <v>8287.177376531548</v>
-      </c>
-      <c r="G173">
-        <v>1514733.101824781</v>
-      </c>
-      <c r="H173">
-        <v>471672.6479749775</v>
-      </c>
-      <c r="I173">
-        <v>523244.0998807908</v>
-      </c>
-      <c r="J173">
-        <v>582362.1468232715</v>
-      </c>
-      <c r="K173">
-        <v>833364.3267820454</v>
+      <c r="C173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B174" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C174" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174">
-        <v>0.3621564508382093</v>
-      </c>
-      <c r="F174">
-        <v>5.251507768426524</v>
-      </c>
-      <c r="G174">
-        <v>582.1154539696978</v>
-      </c>
-      <c r="H174">
-        <v>4.27051230758808</v>
-      </c>
-      <c r="I174">
-        <v>4.711571260893107</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174">
-        <v>0</v>
+        <v>160.9968138907745</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C175" t="s">
+        <v>24</v>
+      </c>
+      <c r="D175">
+        <v>12.58995084625857</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C176" t="s">
+        <v>120</v>
+      </c>
+      <c r="D176">
+        <v>114.9977242076961</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>127</v>
+      <c r="A177" s="1"/>
+      <c r="B177" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="C178" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D178">
-        <v>31.57829036076474</v>
+        <v>621235.868181682</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="1"/>
       <c r="C179" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D179">
-        <v>2.469422306211803</v>
+        <v>621235.868181682</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B180" s="1"/>
       <c r="C180" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="D180">
-        <v>22.55592168626053</v>
+        <v>1261108.812408814</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1" t="s">
-        <v>129</v>
+      <c r="A181" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" t="s">
+        <v>24</v>
       </c>
       <c r="D181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C182" t="s">
-        <v>23</v>
-      </c>
-      <c r="D182">
-        <v>181532.207607021</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B183" s="1"/>
-      <c r="C183" t="s">
-        <v>23</v>
-      </c>
-      <c r="D183">
-        <v>181532.207607021</v>
+        <v>12.58995084625857</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="B184" s="1"/>
-      <c r="C184" t="s">
-        <v>24</v>
-      </c>
-      <c r="D184">
-        <v>368510.3814422526</v>
+      <c r="C184" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B185" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C185" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D185">
-        <v>2.469422306211803</v>
+        <v>9.56973187761867</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C186" t="s">
+        <v>24</v>
+      </c>
+      <c r="D186">
+        <v>0.7483530328297801</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C187" t="s">
+        <v>138</v>
+      </c>
+      <c r="D187">
+        <v>9.56973187761867</v>
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>131</v>
+      <c r="A188" s="1"/>
+      <c r="B188" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C188" t="s">
+        <v>139</v>
+      </c>
+      <c r="D188">
+        <v>12.83301044788664</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A189" s="1"/>
       <c r="B189" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C189" t="s">
-        <v>45</v>
-      </c>
-      <c r="D189">
-        <v>3.573209079069897</v>
+        <v>125</v>
+      </c>
+      <c r="D189" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1"/>
       <c r="B190" s="1" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C190" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D190">
-        <v>0.279424949983266</v>
+        <v>2.301106025017866</v>
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A191" s="1"/>
       <c r="B191" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C191" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="D191">
-        <v>3.573209079069897</v>
+        <v>2.301106025017866</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C192" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="D192">
-        <v>4.791673375032732</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>260.84</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D193" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>129</v>
+      </c>
+      <c r="C193" t="s">
+        <v>22</v>
+      </c>
+      <c r="D193">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C194" t="s">
-        <v>20</v>
-      </c>
-      <c r="D194">
-        <v>1.657001300004735</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>130</v>
+      </c>
+      <c r="D194" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C195" t="s">
         <v>20</v>
       </c>
       <c r="D195">
-        <v>1.657001300004735</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>27.67810484966423</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C196" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D196">
-        <v>135.25</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>6.919526212416058</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C197" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D197">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>10447.8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D198" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>134</v>
+      </c>
+      <c r="C198" t="s">
+        <v>22</v>
+      </c>
+      <c r="D198">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C199" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="D199">
-        <v>16.91280647931821</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B200" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C200" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D200">
-        <v>4.228201619829552</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>22887.90371036585</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C201" t="s">
+        <v>23</v>
+      </c>
+      <c r="D201">
+        <v>3378.23628611508</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" t="s">
+        <v>23</v>
+      </c>
+      <c r="D202">
+        <v>26266.13999648093</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" t="s">
+        <v>24</v>
+      </c>
+      <c r="D203">
+        <v>77227.98573797388</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" t="s">
+        <v>24</v>
+      </c>
+      <c r="D204">
+        <v>0.7483530328297801</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C201" t="s">
-        <v>21</v>
-      </c>
-      <c r="D201">
-        <v>3250.89</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1" t="s">
+      <c r="G207" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C202" t="s">
-        <v>22</v>
-      </c>
-      <c r="D202">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1" t="s">
+      <c r="H207" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B204" s="1" t="s">
+      <c r="I207" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C204" t="s">
-        <v>23</v>
-      </c>
-      <c r="D204">
-        <v>14640.84564766716</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1" t="s">
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C208" t="s">
+        <v>45</v>
+      </c>
+      <c r="D208">
+        <v>70.83847048818566</v>
+      </c>
+      <c r="E208">
+        <v>20.51491676320557</v>
+      </c>
+      <c r="F208">
+        <v>16.83260357812726</v>
+      </c>
+      <c r="G208">
+        <v>20.1788129719525</v>
+      </c>
+      <c r="H208">
+        <v>16.83254115310283</v>
+      </c>
+      <c r="I208">
+        <v>20.24724510526699</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C209" t="s">
+        <v>24</v>
+      </c>
+      <c r="D209">
+        <v>5.539568392176119</v>
+      </c>
+      <c r="E209">
+        <v>1.604266490882675</v>
+      </c>
+      <c r="F209">
+        <v>1.316309599809552</v>
+      </c>
+      <c r="G209">
+        <v>1.577983174406686</v>
+      </c>
+      <c r="H209">
+        <v>1.316304718172641</v>
+      </c>
+      <c r="I209">
+        <v>1.583334567231879</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C205" t="s">
-        <v>23</v>
-      </c>
-      <c r="D205">
-        <v>3060.892576526775</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B206" s="1"/>
-      <c r="C206" t="s">
-        <v>23</v>
-      </c>
-      <c r="D206">
-        <v>17701.73822419393</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B207" s="1"/>
-      <c r="C207" t="s">
-        <v>24</v>
-      </c>
-      <c r="D207">
-        <v>53623.28274531229</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B208" s="1"/>
-      <c r="C208" t="s">
-        <v>24</v>
-      </c>
-      <c r="D208">
-        <v>0.279424949983266</v>
+      <c r="C210" t="s">
+        <v>139</v>
+      </c>
+      <c r="D210">
+        <v>70.41546799167509</v>
+      </c>
+      <c r="E210">
+        <v>17.36169516396376</v>
+      </c>
+      <c r="F210">
+        <v>13.74375787153666</v>
+      </c>
+      <c r="G210">
+        <v>17.02844847192707</v>
+      </c>
+      <c r="H210">
+        <v>13.74369720748605</v>
+      </c>
+      <c r="I210">
+        <v>17.09625358051645</v>
       </c>
     </row>
     <row r="211" spans="1:9">
-      <c r="A211" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H211" s="1" t="s">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C211" t="s">
         <v>155</v>
       </c>
-      <c r="I211" s="1" t="s">
-        <v>156</v>
+      <c r="D211">
+        <v>2053.590632623414</v>
+      </c>
+      <c r="E211">
+        <v>506.3349796864859</v>
+      </c>
+      <c r="F211">
+        <v>400.8217686683386</v>
+      </c>
+      <c r="G211">
+        <v>496.616201914531</v>
+      </c>
+      <c r="H211">
+        <v>400.8199994672011</v>
+      </c>
+      <c r="I211">
+        <v>498.5936642507841</v>
       </c>
     </row>
     <row r="212" spans="1:9">
-      <c r="A212" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C212" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="D212">
-        <v>10.91900092993697</v>
+        <v>0.7412592342430225</v>
       </c>
       <c r="E212">
-        <v>31.24390867988463</v>
+        <v>0.6310933291365095</v>
       </c>
       <c r="F212">
-        <v>11.36692450786309</v>
+        <v>0.608871185856571</v>
       </c>
       <c r="G212">
-        <v>8.622674907674332</v>
+        <v>0.6292897915154104</v>
       </c>
       <c r="H212">
-        <v>7.407426345916169</v>
+        <v>0.6088707563836117</v>
       </c>
       <c r="I212">
-        <v>7.407115135483131</v>
+        <v>0.629660185152081</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C213" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="D213">
-        <v>0.8538658727210711</v>
+        <v>94.99438892465697</v>
       </c>
       <c r="E213">
-        <v>2.443273658766978</v>
+        <v>27.51050337945866</v>
       </c>
       <c r="F213">
-        <v>0.8888934965148937</v>
+        <v>22.57252139826865</v>
       </c>
       <c r="G213">
-        <v>0.6742931777801329</v>
+        <v>27.0597881953883</v>
       </c>
       <c r="H213">
-        <v>0.5792607402506444</v>
+        <v>22.57243768631089</v>
       </c>
       <c r="I213">
-        <v>0.5792364035947809</v>
+        <v>27.15155568616303</v>
       </c>
     </row>
     <row r="214" spans="1:9">
-      <c r="A214" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A214" s="1"/>
       <c r="B214" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C214" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D214">
-        <v>8.130620618219062</v>
+        <v>100</v>
       </c>
       <c r="E214">
-        <v>28.23698690560084</v>
+        <v>30</v>
       </c>
       <c r="F214">
-        <v>8.544665125744052</v>
+        <v>25</v>
       </c>
       <c r="G214">
-        <v>6.046367566524918</v>
+        <v>30</v>
       </c>
       <c r="H214">
-        <v>4.974342216473656</v>
+        <v>25</v>
       </c>
       <c r="I214">
-        <v>4.974070922419915</v>
+        <v>30</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="1"/>
       <c r="B215" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C215" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D215">
-        <v>237.1207181490786</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>823.501049651583</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>249.1958764401946</v>
+        <v>1</v>
       </c>
       <c r="G215">
-        <v>176.3357419918245</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>145.0712871839635</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>145.0633751875892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="1"/>
       <c r="B216" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
+      </c>
+      <c r="C216" t="s">
+        <v>20</v>
       </c>
       <c r="D216">
-        <v>0.5552799805113414</v>
+        <v>192.6586243957618</v>
       </c>
       <c r="E216">
-        <v>0.67394462629102</v>
+        <v>291.5307111052964</v>
       </c>
       <c r="F216">
-        <v>0.5605615345811541</v>
+        <v>298.9006384006789</v>
       </c>
       <c r="G216">
-        <v>0.5229061557911954</v>
+        <v>294.3262423511411</v>
       </c>
       <c r="H216">
-        <v>0.500771426034763</v>
+        <v>298.900843083742</v>
       </c>
       <c r="I216">
-        <v>0.5007651534198132</v>
+        <v>366.0734380696719</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="1"/>
       <c r="B217" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D217">
-        <v>14.64238024704547</v>
-      </c>
-      <c r="E217">
-        <v>41.89808153972528</v>
-      </c>
-      <c r="F217">
-        <v>15.2430457650444</v>
-      </c>
-      <c r="G217">
-        <v>11.56300705119128</v>
-      </c>
-      <c r="H217">
-        <v>9.933358729873582</v>
-      </c>
-      <c r="I217">
-        <v>9.932941396682878</v>
+        <v>153</v>
+      </c>
+      <c r="D217" t="s">
+        <v>156</v>
+      </c>
+      <c r="E217" t="s">
+        <v>156</v>
+      </c>
+      <c r="F217" t="s">
+        <v>156</v>
+      </c>
+      <c r="G217" t="s">
+        <v>156</v>
+      </c>
+      <c r="H217" t="s">
+        <v>156</v>
+      </c>
+      <c r="I217" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="1"/>
+      <c r="A218" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B218" s="1" t="s">
-        <v>160</v>
+        <v>52</v>
+      </c>
+      <c r="C218" t="s">
+        <v>23</v>
       </c>
       <c r="D218">
-        <v>15</v>
+        <v>39820.75463729655</v>
       </c>
       <c r="E218">
-        <v>50</v>
+        <v>14261.78928948614</v>
       </c>
       <c r="F218">
-        <v>20</v>
+        <v>13057.30703084079</v>
       </c>
       <c r="G218">
-        <v>15</v>
+        <v>14175.23048398615</v>
       </c>
       <c r="H218">
-        <v>10</v>
+        <v>13057.28683768313</v>
       </c>
       <c r="I218">
-        <v>10</v>
+        <v>14873.22552797977</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="1"/>
       <c r="B219" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
+      </c>
+      <c r="C219" t="s">
+        <v>23</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>4820.539611345683</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>1325.420355284472</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>1132.753107661787</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>1325.420355284472</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>1132.753107661787</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>1325.420355284472</v>
       </c>
     </row>
     <row r="220" spans="1:9">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="A220" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" s="1"/>
       <c r="C220" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D220">
-        <v>316.0186828319112</v>
+        <v>44641.29424864223</v>
       </c>
       <c r="E220">
-        <v>213.8890460623329</v>
+        <v>15587.20964477062</v>
       </c>
       <c r="F220">
-        <v>328.982526320327</v>
+        <v>14190.06013850257</v>
       </c>
       <c r="G220">
-        <v>440.7869592986479</v>
+        <v>15500.65083927062</v>
       </c>
       <c r="H220">
-        <v>362.9845794125631</v>
+        <v>14190.03994534492</v>
       </c>
       <c r="I220">
-        <v>362.990215746899</v>
+        <v>16198.64588326424</v>
       </c>
     </row>
     <row r="221" spans="1:9">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D221" t="s">
-        <v>166</v>
-      </c>
-      <c r="E221" t="s">
-        <v>166</v>
-      </c>
-      <c r="F221" t="s">
-        <v>166</v>
-      </c>
-      <c r="G221" t="s">
-        <v>166</v>
-      </c>
-      <c r="H221" t="s">
-        <v>166</v>
-      </c>
-      <c r="I221" t="s">
-        <v>166</v>
+      <c r="A221" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="C221" t="s">
+        <v>24</v>
+      </c>
+      <c r="D221">
+        <v>147316.2710205194</v>
+      </c>
+      <c r="E221">
+        <v>51437.79182774303</v>
+      </c>
+      <c r="F221">
+        <v>46827.19845705849</v>
+      </c>
+      <c r="G221">
+        <v>51152.14776959305</v>
+      </c>
+      <c r="H221">
+        <v>46827.13181963823</v>
+      </c>
+      <c r="I221">
+        <v>53455.53141477198</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B222" s="1"/>
       <c r="C222" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D222">
-        <v>11043.40591805618</v>
+        <v>5.539568392176119</v>
       </c>
       <c r="E222">
-        <v>16537.37778951827</v>
+        <v>1.604266490882675</v>
       </c>
       <c r="F222">
-        <v>11277.11132362866</v>
+        <v>1.316309599809552</v>
       </c>
       <c r="G222">
-        <v>15967.7779366114</v>
+        <v>1.577983174406686</v>
       </c>
       <c r="H222">
-        <v>9905.068284299588</v>
+        <v>1.316304718172641</v>
       </c>
       <c r="I222">
-        <v>9904.965722057168</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C223" t="s">
-        <v>23</v>
-      </c>
-      <c r="D223">
-        <v>778.9098966193278</v>
-      </c>
-      <c r="E223">
-        <v>2185.531516417895</v>
-      </c>
-      <c r="F223">
-        <v>950.2548879891278</v>
-      </c>
-      <c r="G223">
-        <v>778.9098966193278</v>
-      </c>
-      <c r="H223">
-        <v>620.5362044090547</v>
-      </c>
-      <c r="I223">
-        <v>620.5362044090547</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
-      <c r="A224" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B224" s="1"/>
-      <c r="C224" t="s">
-        <v>23</v>
-      </c>
-      <c r="D224">
-        <v>11822.31581467551</v>
-      </c>
-      <c r="E224">
-        <v>18722.90930593616</v>
-      </c>
-      <c r="F224">
-        <v>12227.36621161779</v>
-      </c>
-      <c r="G224">
-        <v>16746.68783323073</v>
-      </c>
-      <c r="H224">
-        <v>10525.60448870864</v>
-      </c>
-      <c r="I224">
-        <v>10525.50192646622</v>
+        <v>1.583334567231879</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="1" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="B225" s="1"/>
-      <c r="C225" t="s">
-        <v>24</v>
-      </c>
-      <c r="D225">
-        <v>39013.64218842918</v>
-      </c>
-      <c r="E225">
-        <v>61785.60070958934</v>
-      </c>
-      <c r="F225">
-        <v>40350.30849833869</v>
-      </c>
-      <c r="G225">
-        <v>55264.0698496614</v>
-      </c>
-      <c r="H225">
-        <v>34734.49481273852</v>
-      </c>
-      <c r="I225">
-        <v>34734.15635733854</v>
+      <c r="C225" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B226" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C226" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D226">
-        <v>0.8538658727210711</v>
-      </c>
-      <c r="E226">
-        <v>2.443273658766978</v>
-      </c>
-      <c r="F226">
-        <v>0.8888934965148937</v>
-      </c>
-      <c r="G226">
-        <v>0.6742931777801329</v>
-      </c>
-      <c r="H226">
-        <v>0.5792607402506444</v>
-      </c>
-      <c r="I226">
-        <v>0.5792364035947809</v>
+        <v>652.9699944748534</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C227" t="s">
+        <v>24</v>
+      </c>
+      <c r="D227">
+        <v>51.06225356793354</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C228" t="s">
+        <v>120</v>
+      </c>
+      <c r="D228">
+        <v>466.4071389106095</v>
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>167</v>
+      <c r="A229" s="1"/>
+      <c r="B229" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D229">
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="C230" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D230">
-        <v>261.8445308908054</v>
+        <v>1649327.842540777</v>
       </c>
     </row>
     <row r="231" spans="1:9">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A231" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" s="1"/>
       <c r="C231" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D231">
-        <v>20.47624231566098</v>
+        <v>1649327.842540777</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B232" s="1"/>
       <c r="C232" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="D232">
-        <v>187.0318077791467</v>
+        <v>3348135.520357777</v>
       </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1" t="s">
-        <v>129</v>
+      <c r="A233" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B233" s="1"/>
+      <c r="C233" t="s">
+        <v>24</v>
       </c>
       <c r="D233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
-      <c r="A234" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C234" t="s">
-        <v>23</v>
-      </c>
-      <c r="D234">
-        <v>611310.1377331597</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
-      <c r="A235" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B235" s="1"/>
-      <c r="C235" t="s">
-        <v>23</v>
-      </c>
-      <c r="D235">
-        <v>611310.1377331597</v>
+        <v>51.06225356793354</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="1" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="B236" s="1"/>
-      <c r="C236" t="s">
-        <v>24</v>
-      </c>
-      <c r="D236">
-        <v>1240959.579598314</v>
+      <c r="C236" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B237" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C237" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="D237">
-        <v>20.47624231566098</v>
+        <v>2</v>
+      </c>
+      <c r="E237">
+        <v>168</v>
+      </c>
+      <c r="F237">
+        <v>0.25</v>
+      </c>
+      <c r="G237">
+        <v>168</v>
+      </c>
+      <c r="H237">
+        <v>168</v>
+      </c>
+      <c r="I237">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C238" t="s">
+        <v>138</v>
+      </c>
+      <c r="D238">
+        <v>932.8142778212192</v>
+      </c>
+      <c r="E238">
+        <v>10.91108394580406</v>
+      </c>
+      <c r="F238">
+        <v>22.7584470059243</v>
+      </c>
+      <c r="G238">
+        <v>776.1937578314416</v>
+      </c>
+      <c r="H238">
+        <v>2299.523034642604</v>
+      </c>
+      <c r="I238">
+        <v>0.5634192121299422</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E240" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H240" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I240" s="1" t="s">
-        <v>174</v>
+      <c r="C240" t="s">
+        <v>23</v>
+      </c>
+      <c r="D240">
+        <v>230108.2083987516</v>
+      </c>
+      <c r="E240">
+        <v>72078.75289322039</v>
+      </c>
+      <c r="F240">
+        <v>74109.58687449431</v>
+      </c>
+      <c r="G240">
+        <v>469048.6814013057</v>
+      </c>
+      <c r="H240">
+        <v>813492.2165514919</v>
+      </c>
+      <c r="I240">
+        <v>70304.99200977857</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>176</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B241" s="1"/>
       <c r="C241" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D241">
-        <v>0.25</v>
+        <v>230108.2083987516</v>
       </c>
       <c r="E241">
-        <v>168</v>
+        <v>72078.75289322039</v>
       </c>
       <c r="F241">
-        <v>168</v>
+        <v>74109.58687449431</v>
       </c>
       <c r="G241">
-        <v>168</v>
+        <v>469048.6814013057</v>
       </c>
       <c r="H241">
-        <v>168</v>
+        <v>813492.2165514919</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>70304.99200977857</v>
       </c>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="A242" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" s="1"/>
       <c r="C242" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="D242">
-        <v>8.237070587324755</v>
+        <v>529248.8793171287</v>
       </c>
       <c r="E242">
-        <v>2299.736961640951</v>
+        <v>165781.1316544069</v>
       </c>
       <c r="F242">
-        <v>9.698734824930511</v>
+        <v>170452.0498113369</v>
       </c>
       <c r="G242">
-        <v>0.2006653904246305</v>
+        <v>1078811.967223003</v>
       </c>
       <c r="H242">
-        <v>622.2345911739079</v>
+        <v>1871032.098068431</v>
       </c>
       <c r="I242">
-        <v>374.0636155582933</v>
+        <v>161701.4816224907</v>
       </c>
     </row>
     <row r="243" spans="1:9">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1" t="s">
-        <v>178</v>
+      <c r="A243" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" t="s">
+        <v>24</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9">
-      <c r="A244" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C244" t="s">
-        <v>23</v>
-      </c>
-      <c r="D244">
-        <v>71620.38277598648</v>
-      </c>
-      <c r="E244">
-        <v>813530.5854415096</v>
-      </c>
-      <c r="F244">
-        <v>71870.93620191589</v>
-      </c>
-      <c r="G244">
-        <v>70242.81000487015</v>
-      </c>
-      <c r="H244">
-        <v>419312.5006285951</v>
-      </c>
-      <c r="I244">
-        <v>134329.1032742956</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9">
-      <c r="A245" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B245" s="1"/>
-      <c r="C245" t="s">
-        <v>23</v>
-      </c>
-      <c r="D245">
-        <v>71620.38277598648</v>
-      </c>
-      <c r="E245">
-        <v>813530.5854415096</v>
-      </c>
-      <c r="F245">
-        <v>71870.93620191589</v>
-      </c>
-      <c r="G245">
-        <v>70242.81000487015</v>
-      </c>
-      <c r="H245">
-        <v>419312.5006285951</v>
-      </c>
-      <c r="I245">
-        <v>134329.1032742956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" s="1" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="B246" s="1"/>
-      <c r="C246" t="s">
-        <v>24</v>
-      </c>
-      <c r="D246">
-        <v>164726.8803847689</v>
-      </c>
-      <c r="E246">
-        <v>1871120.346515472</v>
-      </c>
-      <c r="F246">
-        <v>165303.1532644065</v>
-      </c>
-      <c r="G246">
-        <v>161558.4630112013</v>
-      </c>
-      <c r="H246">
-        <v>964418.7514457688</v>
-      </c>
-      <c r="I246">
-        <v>308956.9375308799</v>
+      <c r="C246" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B247" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C247" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="D247">
-        <v>0</v>
-      </c>
-      <c r="E247">
-        <v>0</v>
-      </c>
-      <c r="F247">
-        <v>0</v>
-      </c>
-      <c r="G247">
-        <v>0</v>
-      </c>
-      <c r="H247">
-        <v>0</v>
-      </c>
-      <c r="I247">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C248" t="s">
+        <v>138</v>
+      </c>
+      <c r="D248">
+        <v>11.49977242076961</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>180</v>
+        <v>4</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C250" t="s">
+        <v>23</v>
+      </c>
+      <c r="D250">
+        <v>72179.66383460691</v>
       </c>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>176</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B251" s="1"/>
       <c r="C251" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D251">
-        <v>0.1</v>
+        <v>72179.66383460691</v>
       </c>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="A252" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252" s="1"/>
       <c r="C252" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="D252">
-        <v>5.659683771069604</v>
+        <v>166013.2268195959</v>
       </c>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1" t="s">
-        <v>178</v>
+      <c r="A253" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B253" s="1"/>
+      <c r="C253" t="s">
+        <v>24</v>
       </c>
       <c r="D253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9">
-      <c r="A254" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C254" t="s">
-        <v>23</v>
-      </c>
-      <c r="D254">
-        <v>71178.57604627145</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9">
-      <c r="A255" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B255" s="1"/>
-      <c r="C255" t="s">
-        <v>23</v>
-      </c>
-      <c r="D255">
-        <v>71178.57604627145</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9">
-      <c r="A256" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B256" s="1"/>
-      <c r="C256" t="s">
-        <v>24</v>
-      </c>
-      <c r="D256">
-        <v>163710.7249064243</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B257" s="1"/>
-      <c r="C257" t="s">
-        <v>24</v>
-      </c>
-      <c r="D257">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="41">
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A19:A20"/>
@@ -4464,25 +4352,26 @@
     <mergeCell ref="A99:A102"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="A129:A134"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A146:A152"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A163:A170"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="A191:A203"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="A214:A221"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A241:A243"/>
-    <mergeCell ref="A251:A253"/>
+    <mergeCell ref="A115:A123"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A139:A145"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="A159:A166"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A187:A199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="A210:A217"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="A247:A249"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/LAOs/results/Equipment list.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/LAOs/results/Equipment list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="182">
   <si>
     <t>Units</t>
   </si>
@@ -109,12 +109,12 @@
     <t>Medium pressure steam</t>
   </si>
   <si>
+    <t>High pressure steam</t>
+  </si>
+  <si>
     <t>Low pressure steam</t>
   </si>
   <si>
-    <t>High pressure steam</t>
-  </si>
-  <si>
     <t>Cooling water</t>
   </si>
   <si>
@@ -214,15 +214,15 @@
     <t>Bag unloader</t>
   </si>
   <si>
-    <t>D103</t>
+    <t>D102</t>
+  </si>
+  <si>
+    <t>D104</t>
   </si>
   <si>
     <t>D101</t>
   </si>
   <si>
-    <t>D104</t>
-  </si>
-  <si>
     <t>Distillation</t>
   </si>
   <si>
@@ -238,16 +238,46 @@
     <t>Reflux</t>
   </si>
   <si>
-    <t>Actual stages</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Trays</t>
-  </si>
-  <si>
-    <t>Tower</t>
+    <t>Rectifier stages</t>
+  </si>
+  <si>
+    <t>Stripper stages</t>
+  </si>
+  <si>
+    <t>Rectifier height</t>
+  </si>
+  <si>
+    <t>Stripper height</t>
+  </si>
+  <si>
+    <t>Rectifier diameter</t>
+  </si>
+  <si>
+    <t>Stripper diameter</t>
+  </si>
+  <si>
+    <t>Rectifier wall thickness</t>
+  </si>
+  <si>
+    <t>Stripper wall thickness</t>
+  </si>
+  <si>
+    <t>Rectifier weight</t>
+  </si>
+  <si>
+    <t>Stripper weight</t>
+  </si>
+  <si>
+    <t>Rectifier trays</t>
+  </si>
+  <si>
+    <t>Stripper trays</t>
+  </si>
+  <si>
+    <t>Rectifier tower</t>
+  </si>
+  <si>
+    <t>Stripper tower</t>
   </si>
   <si>
     <t>Condenser</t>
@@ -307,24 +337,24 @@
     <t>H107</t>
   </si>
   <si>
+    <t>H105</t>
+  </si>
+  <si>
+    <t>H103</t>
+  </si>
+  <si>
+    <t>H106</t>
+  </si>
+  <si>
     <t>H108</t>
   </si>
   <si>
-    <t>H105</t>
-  </si>
-  <si>
-    <t>H106</t>
-  </si>
-  <si>
-    <t>H109</t>
-  </si>
-  <si>
-    <t>H103</t>
-  </si>
-  <si>
     <t>H104</t>
   </si>
   <si>
+    <t>H102</t>
+  </si>
+  <si>
     <t>Heat Exchanger</t>
   </si>
   <si>
@@ -439,6 +469,9 @@
     <t>Horizontal</t>
   </si>
   <si>
+    <t>P106</t>
+  </si>
+  <si>
     <t>P104</t>
   </si>
   <si>
@@ -448,15 +481,12 @@
     <t>P102</t>
   </si>
   <si>
-    <t>P106</t>
+    <t>P108</t>
   </si>
   <si>
     <t>P109</t>
   </si>
   <si>
-    <t>P108</t>
-  </si>
-  <si>
     <t>Ideal power</t>
   </si>
   <si>
@@ -499,13 +529,13 @@
     <t>T101</t>
   </si>
   <si>
+    <t>T109</t>
+  </si>
+  <si>
+    <t>T110</t>
+  </si>
+  <si>
     <t>T102</t>
-  </si>
-  <si>
-    <t>T109</t>
-  </si>
-  <si>
-    <t>T110</t>
   </si>
   <si>
     <t>T104</t>
@@ -887,7 +917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K253"/>
+  <dimension ref="A2:K260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,7 +946,7 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>88571.27634870414</v>
+        <v>88571.3803867969</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -928,7 +958,7 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>1180.327567121352</v>
+        <v>1180.328953564383</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -949,7 +979,7 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>28.86318262216755</v>
+        <v>28.86319392330797</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -961,7 +991,7 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>14.43159131108377</v>
+        <v>14.43159696165399</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -973,7 +1003,7 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>33544.14</v>
+        <v>33544.18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -985,7 +1015,7 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <v>0.4857535924298771</v>
+        <v>0.4857537336799624</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1008,7 +1038,7 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>196517.8738361489</v>
+        <v>196518.0220476259</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1020,7 +1050,7 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>858255.667818943</v>
+        <v>858256.6759480619</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1032,7 +1062,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>1054773.541655092</v>
+        <v>1054774.697995688</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1044,7 +1074,7 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>1675770.022977323</v>
+        <v>1675771.647666185</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1082,7 +1112,7 @@
         <v>45</v>
       </c>
       <c r="D19">
-        <v>-3614.703247727842</v>
+        <v>-3610.647953727781</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1094,7 +1124,7 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>-282.6697939723172</v>
+        <v>-282.3526699815125</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1108,7 +1138,7 @@
         <v>46</v>
       </c>
       <c r="D21">
-        <v>-54818382.99547782</v>
+        <v>-52891260.43843674</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1120,7 +1150,7 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>-1711.803592744462</v>
+        <v>-1651.625690067655</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1132,7 +1162,7 @@
         <v>24</v>
       </c>
       <c r="D23">
-        <v>-545.6813367496836</v>
+        <v>-526.4980855200113</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1146,7 +1176,7 @@
         <v>46</v>
       </c>
       <c r="D24">
-        <v>-934337.6644194166</v>
+        <v>-5707565.499398316</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1158,7 +1188,7 @@
         <v>47</v>
       </c>
       <c r="D25">
-        <v>-24.06960049677545</v>
+        <v>-435.4976830549712</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1170,7 +1200,7 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>-5.723750998133202</v>
+        <v>-179.0748323998558</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1184,7 +1214,7 @@
         <v>46</v>
       </c>
       <c r="D27">
-        <v>-5707654.351183286</v>
+        <v>-934349.6066893364</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1196,7 +1226,7 @@
         <v>47</v>
       </c>
       <c r="D28">
-        <v>-435.504462608617</v>
+        <v>-24.06990814322591</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1208,7 +1238,7 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>-179.0776201240621</v>
+        <v>-5.723824156459123</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1222,7 +1252,7 @@
         <v>46</v>
       </c>
       <c r="D30">
-        <v>-2427937.838923048</v>
+        <v>-2422517.274862237</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1234,7 +1264,7 @@
         <v>47</v>
       </c>
       <c r="D31">
-        <v>1659.239828983601</v>
+        <v>1655.535444282697</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1246,7 +1276,7 @@
         <v>24</v>
       </c>
       <c r="D32">
-        <v>0.80946015056965</v>
+        <v>0.8076529664933135</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1260,7 +1290,7 @@
         <v>48</v>
       </c>
       <c r="D33">
-        <v>49420.11722025538</v>
+        <v>48351.50201209127</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1272,7 +1302,7 @@
         <v>45</v>
       </c>
       <c r="D34">
-        <v>3821.754005712203</v>
+        <v>3813.221636357225</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1286,7 +1316,7 @@
         <v>23</v>
       </c>
       <c r="D35">
-        <v>11430532.80615333</v>
+        <v>11281586.91395062</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1298,7 +1328,7 @@
         <v>23</v>
       </c>
       <c r="D36">
-        <v>123006.1352112938</v>
+        <v>121403.3001671049</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1310,7 +1340,7 @@
         <v>23</v>
       </c>
       <c r="D37">
-        <v>16131.95215885821</v>
+        <v>15921.74428421048</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1322,7 +1352,7 @@
         <v>23</v>
       </c>
       <c r="D38">
-        <v>31457.3067097735</v>
+        <v>31047.40135421043</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1334,7 +1364,7 @@
         <v>23</v>
       </c>
       <c r="D39">
-        <v>2315837.272193965</v>
+        <v>2312733.711193423</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1346,7 +1376,7 @@
         <v>23</v>
       </c>
       <c r="D40">
-        <v>13916965.47242722</v>
+        <v>13762693.07094957</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1358,7 +1388,7 @@
         <v>24</v>
       </c>
       <c r="D41">
-        <v>25198145.21262255</v>
+        <v>24918531.48790975</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1370,7 +1400,7 @@
         <v>24</v>
       </c>
       <c r="D42">
-        <v>-542.0899168330425</v>
+        <v>-534.47923637391</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1396,7 +1426,7 @@
         <v>45</v>
       </c>
       <c r="D46">
-        <v>6.666284561036007</v>
+        <v>6.666344823179371</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1408,7 +1438,7 @@
         <v>24</v>
       </c>
       <c r="D47">
-        <v>0.5213034526730158</v>
+        <v>0.5213081651726269</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1422,7 +1452,7 @@
         <v>48</v>
       </c>
       <c r="D48">
-        <v>1185.991352774722</v>
+        <v>1186.002073946355</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1436,7 +1466,7 @@
         <v>23</v>
       </c>
       <c r="D49">
-        <v>67996.20697150748</v>
+        <v>67996.6372432886</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1448,7 +1478,7 @@
         <v>23</v>
       </c>
       <c r="D50">
-        <v>2867.615653922742</v>
+        <v>2867.636392132502</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1460,7 +1490,7 @@
         <v>23</v>
       </c>
       <c r="D51">
-        <v>21266.51990169647</v>
+        <v>21266.61602444395</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1472,7 +1502,7 @@
         <v>23</v>
       </c>
       <c r="D52">
-        <v>92130.34252712669</v>
+        <v>92130.88965986505</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1484,7 +1514,7 @@
         <v>24</v>
       </c>
       <c r="D53">
-        <v>217579.5265056247</v>
+        <v>217580.853684827</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1496,7 +1526,7 @@
         <v>24</v>
       </c>
       <c r="D54">
-        <v>0.5213034526730158</v>
+        <v>0.5213081651726269</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1519,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="D58">
-        <v>9930.434568241539</v>
+        <v>9930.489463772054</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1533,7 +1563,7 @@
         <v>23</v>
       </c>
       <c r="D59">
-        <v>6395696.383675963</v>
+        <v>6395731.739142391</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1545,7 +1575,7 @@
         <v>23</v>
       </c>
       <c r="D60">
-        <v>6395696.383675963</v>
+        <v>6395731.739142391</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1557,7 +1587,7 @@
         <v>24</v>
       </c>
       <c r="D61">
-        <v>6395696.383675963</v>
+        <v>6395731.739142391</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1773,7 +1803,7 @@
         <v>45</v>
       </c>
       <c r="D82">
-        <v>289.4663171749546</v>
+        <v>285.4039674481404</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1785,7 +1815,7 @@
         <v>24</v>
       </c>
       <c r="D83">
-        <v>22.63626600308145</v>
+        <v>22.31859025444458</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1799,7 +1829,7 @@
         <v>46</v>
       </c>
       <c r="D84">
-        <v>89825083.04507092</v>
+        <v>88560414.06714968</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1811,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="D85">
-        <v>-61582.93661798118</v>
+        <v>-60718.68606134297</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1823,7 +1853,7 @@
         <v>24</v>
       </c>
       <c r="D86">
-        <v>-30.04323562908212</v>
+        <v>-29.62161099502616</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1837,7 +1867,7 @@
         <v>47</v>
       </c>
       <c r="D87">
-        <v>61582.93661798118</v>
+        <v>60718.68606134297</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1851,7 +1881,7 @@
         <v>23</v>
       </c>
       <c r="D88">
-        <v>303068.4593771751</v>
+        <v>300084.8846785455</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1863,7 +1893,7 @@
         <v>23</v>
       </c>
       <c r="D89">
-        <v>50164.8174865181</v>
+        <v>49600.81502619669</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1875,7 +1905,7 @@
         <v>23</v>
       </c>
       <c r="D90">
-        <v>353233.2768636932</v>
+        <v>349685.6997047422</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1887,7 +1917,7 @@
         <v>24</v>
       </c>
       <c r="D91">
-        <v>610113.6232739687</v>
+        <v>603889.853599028</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1899,7 +1929,7 @@
         <v>24</v>
       </c>
       <c r="D92">
-        <v>-7.406969626000674</v>
+        <v>-7.30302074058158</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1925,7 +1955,7 @@
         <v>45</v>
       </c>
       <c r="D96">
-        <v>3.909837223851285</v>
+        <v>3.909860836980267</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -1937,7 +1967,7 @@
         <v>24</v>
       </c>
       <c r="D97">
-        <v>0.3057492709051705</v>
+        <v>0.305751117451857</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -1951,7 +1981,7 @@
         <v>48</v>
       </c>
       <c r="D98">
-        <v>142.2965296822202</v>
+        <v>142.2973890699943</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -1965,7 +1995,7 @@
         <v>23</v>
       </c>
       <c r="D99">
-        <v>100832.4286218063</v>
+        <v>100832.8548996267</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -1977,7 +2007,7 @@
         <v>23</v>
       </c>
       <c r="D100">
-        <v>2925.647382269893</v>
+        <v>2925.661517619948</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -1989,7 +2019,7 @@
         <v>23</v>
       </c>
       <c r="D101">
-        <v>9954.622393719332</v>
+        <v>9954.652453721092</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2001,7 +2031,7 @@
         <v>23</v>
       </c>
       <c r="D102">
-        <v>30062.1917185513</v>
+        <v>30062.30065324794</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2013,7 +2043,7 @@
         <v>23</v>
       </c>
       <c r="D103">
-        <v>143774.8901163468</v>
+        <v>143775.4695242157</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2025,7 +2055,7 @@
         <v>24</v>
       </c>
       <c r="D104">
-        <v>256605.5379164042</v>
+        <v>256606.5793150531</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2037,7 +2067,7 @@
         <v>24</v>
       </c>
       <c r="D105">
-        <v>0.3057492709051705</v>
+        <v>0.305751117451857</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2069,13 +2099,13 @@
         <v>46</v>
       </c>
       <c r="D109">
-        <v>-388835.2068998073</v>
+        <v>-5095817.394782957</v>
       </c>
       <c r="E109">
-        <v>-15021304.11478393</v>
+        <v>-2163064.599063888</v>
       </c>
       <c r="F109">
-        <v>-2162865.832975455</v>
+        <v>-15021398.19237674</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2087,13 +2117,13 @@
         <v>47</v>
       </c>
       <c r="D110">
-        <v>265.727916034875</v>
+        <v>3482.454553450088</v>
       </c>
       <c r="E110">
-        <v>10265.47948261319</v>
+        <v>1478.226863099274</v>
       </c>
       <c r="F110">
-        <v>1478.091027409705</v>
+        <v>10265.54377474065</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2105,13 +2135,13 @@
         <v>24</v>
       </c>
       <c r="D111">
-        <v>0.1296353638376138</v>
+        <v>1.698915453900625</v>
       </c>
       <c r="E111">
-        <v>5.008014165592844</v>
+        <v>0.7211529751629809</v>
       </c>
       <c r="F111">
-        <v>0.7210867077218248</v>
+        <v>5.008045530507226</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2125,13 +2155,13 @@
         <v>46</v>
       </c>
       <c r="D112">
-        <v>4270310.290900334</v>
+        <v>3059612.049590369</v>
       </c>
       <c r="E112">
-        <v>40068574.20556699</v>
+        <v>5492657.070961199</v>
       </c>
       <c r="F112">
-        <v>5492165.159750871</v>
+        <v>40068724.33291254</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2143,13 +2173,13 @@
         <v>47</v>
       </c>
       <c r="D113">
-        <v>133.3481963285905</v>
+        <v>95.54194437521258</v>
       </c>
       <c r="E113">
-        <v>1251.214018605691</v>
+        <v>171.5181950653359</v>
       </c>
       <c r="F113">
-        <v>171.5028342441818</v>
+        <v>1251.218706604779</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2161,13 +2191,13 @@
         <v>24</v>
       </c>
       <c r="D114">
-        <v>42.5081605939864</v>
+        <v>30.45644730698535</v>
       </c>
       <c r="E114">
-        <v>398.8565867758521</v>
+        <v>54.67582750547318</v>
       </c>
       <c r="F114">
-        <v>54.67093084942194</v>
+        <v>398.858081195901</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2181,10 +2211,10 @@
         <v>1</v>
       </c>
       <c r="E115">
+        <v>9</v>
+      </c>
+      <c r="F115">
         <v>2</v>
-      </c>
-      <c r="F115">
-        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2193,13 +2223,13 @@
         <v>71</v>
       </c>
       <c r="D116">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E116">
+        <v>41</v>
+      </c>
+      <c r="F116">
         <v>22</v>
-      </c>
-      <c r="F116">
-        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2208,16 +2238,16 @@
         <v>72</v>
       </c>
       <c r="C117" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D117">
-        <v>0.3342914340295329</v>
+        <v>0.385859797590119</v>
       </c>
       <c r="E117">
-        <v>0.6470277330768888</v>
+        <v>1.276070118527876</v>
       </c>
       <c r="F117">
-        <v>1.276063143674178</v>
+        <v>0.6470300263432489</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2226,16 +2256,16 @@
         <v>73</v>
       </c>
       <c r="C118" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D118">
-        <v>0.3510060057310095</v>
+        <v>0.405152787469625</v>
       </c>
       <c r="E118">
-        <v>0.6793791197307333</v>
+        <v>1.33987362445427</v>
       </c>
       <c r="F118">
-        <v>1.339866300857887</v>
+        <v>0.6793815276604114</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2244,10 +2274,10 @@
         <v>74</v>
       </c>
       <c r="D119">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2255,2077 +2285,2179 @@
       <c r="B120" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C120" t="s">
-        <v>20</v>
-      </c>
       <c r="D120">
-        <v>109.936416</v>
+        <v>87</v>
       </c>
       <c r="F120">
-        <v>101.080416</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C121" t="s">
         <v>20</v>
       </c>
       <c r="D121">
-        <v>2.99792</v>
+        <v>13.996416</v>
       </c>
       <c r="F121">
-        <v>3.729631165929854</v>
+        <v>16.948416</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C122" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D122">
-        <v>1.125</v>
+        <v>140.932416</v>
       </c>
       <c r="F122">
-        <v>0.75</v>
+        <v>64.18041599999999</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C123" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D123">
-        <v>51082.24699436999</v>
+        <v>5.769535935170159</v>
       </c>
       <c r="F123">
-        <v>38695.0882614455</v>
+        <v>7.579145053600977</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C124" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D124">
-        <v>60828.59106274766</v>
+        <v>2.99792</v>
       </c>
       <c r="F124">
-        <v>63551.69994997628</v>
+        <v>8.977688149007955</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D125">
-        <v>348818.5213161081</v>
+        <v>0.3125</v>
       </c>
       <c r="F125">
-        <v>306611.4465655746</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D126">
-        <v>5046.15245380719</v>
-      </c>
-      <c r="E126">
-        <v>95913.8030212552</v>
+        <v>1.75</v>
       </c>
       <c r="F126">
-        <v>75242.51976241112</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C127" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D127">
-        <v>5945.351547653983</v>
-      </c>
-      <c r="E127">
-        <v>798228.1292644773</v>
+        <v>25189.77016829642</v>
       </c>
       <c r="F127">
-        <v>87478.75964474813</v>
+        <v>10024.01923940197</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B128" s="1"/>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D128">
-        <v>420638.6163803169</v>
-      </c>
-      <c r="E128">
-        <v>1435158.82737056</v>
+        <v>103094.6428787647</v>
       </c>
       <c r="F128">
-        <v>532884.4259227101</v>
+        <v>36794.5365369655</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B129" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D129">
-        <v>1781267.29043171</v>
-      </c>
-      <c r="E129">
-        <v>5160802.574210532</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>2107527.985737564</v>
+        <v>9010.615981175497</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B130" s="1"/>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D130">
-        <v>42.63779595782402</v>
-      </c>
-      <c r="E130">
-        <v>403.8646009414449</v>
+        <v>88610.51341639143</v>
       </c>
       <c r="F130">
-        <v>55.39201755714376</v>
+        <v>90838.44269860059</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C131" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131">
+        <v>194266.1681659037</v>
+      </c>
+      <c r="F131">
+        <v>126009.6762318176</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C132" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132">
+        <v>539766.8531757435</v>
+      </c>
+      <c r="F132">
+        <v>315159.1389470186</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>80</v>
+      <c r="A133" s="1"/>
+      <c r="B133" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C133" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133">
+        <v>79559.69970027734</v>
+      </c>
+      <c r="E133">
+        <v>75242.917601279</v>
+      </c>
+      <c r="F133">
+        <v>95913.96948307984</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C134" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D134">
-        <v>275.4117040664958</v>
+        <v>142182.3422771376</v>
+      </c>
+      <c r="E134">
+        <v>87479.79687231038</v>
+      </c>
+      <c r="F134">
+        <v>798230.8621195819</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="1"/>
       <c r="C135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D135">
-        <v>21.53719525799997</v>
+        <v>1044385.576735453</v>
+      </c>
+      <c r="E135">
+        <v>532897.0656643717</v>
+      </c>
+      <c r="F135">
+        <v>1435162.705461274</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B136" s="1"/>
       <c r="C136" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D136">
-        <v>-46176087.14099264</v>
+        <v>4240289.472527971</v>
+      </c>
+      <c r="E136">
+        <v>2107580.715001642</v>
+      </c>
+      <c r="F136">
+        <v>5160815.97377247</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="1"/>
       <c r="C137" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D137">
-        <v>30602.43146830959</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C138" t="s">
-        <v>24</v>
-      </c>
-      <c r="D138">
-        <v>230.8804357049632</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C139" t="s">
-        <v>93</v>
-      </c>
-      <c r="D139">
-        <v>3584.425234220425</v>
+        <v>32.15536276088597</v>
+      </c>
+      <c r="E137">
+        <v>55.39698048063616</v>
+      </c>
+      <c r="F137">
+        <v>403.8661267264083</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C140" t="s">
-        <v>94</v>
-      </c>
-      <c r="D140">
-        <v>89.91666666666667</v>
+      <c r="A140" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="1"/>
+      <c r="A141" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B141" s="1" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C141" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="D141">
-        <v>6.916666666666666</v>
+        <v>275.4132416888642</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
-        <v>85</v>
+        <v>35</v>
+      </c>
+      <c r="C142" t="s">
+        <v>24</v>
       </c>
       <c r="D142">
-        <v>13</v>
+        <v>21.53731550006918</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="1"/>
+      <c r="A143" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B143" s="1" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C143" t="s">
         <v>46</v>
       </c>
       <c r="D143">
-        <v>46176087.14099264</v>
+        <v>-46176087.14099264</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C144" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="D144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>30602.43146830959</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
-        <v>88</v>
+        <v>35</v>
+      </c>
+      <c r="C145" t="s">
+        <v>24</v>
       </c>
       <c r="D145">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>230.8804357049632</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="D146">
-        <v>190570.83077403</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>3584.44524605121</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C147" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="D147">
-        <v>11610239.77956619</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>89.91666666666667</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C148" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="D148">
-        <v>722200.9341554798</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>6.916666666666666</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C149" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="D149">
-        <v>443070.5151834512</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C150" t="s">
+        <v>46</v>
+      </c>
+      <c r="D150">
+        <v>46176087.14099264</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C151" t="s">
+        <v>104</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D152">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C153" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153">
+        <v>190570.83077403</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C154" t="s">
+        <v>23</v>
+      </c>
+      <c r="D154">
+        <v>11610272.18948052</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C155" t="s">
+        <v>23</v>
+      </c>
+      <c r="D155">
+        <v>722202.9501750325</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C156" t="s">
+        <v>23</v>
+      </c>
+      <c r="D156">
+        <v>443071.9993782712</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B150" s="1"/>
-      <c r="C150" t="s">
-        <v>23</v>
-      </c>
-      <c r="D150">
-        <v>12966082.05967915</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151" s="1" t="s">
+      <c r="B157" s="1"/>
+      <c r="C157" t="s">
+        <v>23</v>
+      </c>
+      <c r="D157">
+        <v>12966117.96980786</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B151" s="1"/>
-      <c r="C151" t="s">
-        <v>24</v>
-      </c>
-      <c r="D151">
-        <v>19715443.82561558</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152" s="1" t="s">
+      <c r="B158" s="1"/>
+      <c r="C158" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158">
+        <v>19715498.13606708</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B152" s="1"/>
-      <c r="C152" t="s">
-        <v>24</v>
-      </c>
-      <c r="D152">
-        <v>252.4176309629632</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1" t="s">
+      <c r="B159" s="1"/>
+      <c r="C159" t="s">
+        <v>24</v>
+      </c>
+      <c r="D159">
+        <v>252.4177512050324</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K155" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B156" s="1" t="s">
+      <c r="D162" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C163" t="s">
         <v>46</v>
       </c>
-      <c r="D156">
-        <v>934337.6644194166</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C157" t="s">
-        <v>47</v>
-      </c>
-      <c r="D157">
-        <v>24.06960049677545</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C158" t="s">
-        <v>24</v>
-      </c>
-      <c r="D158">
-        <v>5.723750998133202</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C159" t="s">
-        <v>113</v>
-      </c>
-      <c r="D159">
-        <v>51.87731940674384</v>
-      </c>
-      <c r="E159">
-        <v>371.2894770203915</v>
-      </c>
-      <c r="F159">
-        <v>824.1385547925145</v>
-      </c>
-      <c r="G159">
-        <v>871.0980751066345</v>
-      </c>
-      <c r="H159">
-        <v>472.2561008827879</v>
-      </c>
-      <c r="I159">
-        <v>1801.558842227835</v>
-      </c>
-      <c r="J159">
-        <v>1709.294163704897</v>
-      </c>
-      <c r="K159">
-        <v>12091.13431366226</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C160" t="s">
-        <v>114</v>
-      </c>
-      <c r="D160">
-        <v>0.5</v>
-      </c>
-      <c r="E160">
-        <v>0.5</v>
-      </c>
-      <c r="F160">
-        <v>0.5</v>
-      </c>
-      <c r="G160">
-        <v>0.5</v>
-      </c>
-      <c r="H160">
-        <v>0.5</v>
-      </c>
-      <c r="I160">
-        <v>0.5</v>
-      </c>
-      <c r="J160">
-        <v>0.5</v>
-      </c>
-      <c r="K160">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C161" t="s">
-        <v>115</v>
-      </c>
-      <c r="D161">
-        <v>102.3082767113998</v>
-      </c>
-      <c r="E161">
-        <v>35.96546232287139</v>
-      </c>
-      <c r="F161">
-        <v>21.09040727674859</v>
-      </c>
-      <c r="G161">
-        <v>8.968797108954364</v>
-      </c>
-      <c r="H161">
-        <v>14.93021158487228</v>
-      </c>
-      <c r="I161">
-        <v>44.74434810633918</v>
-      </c>
-      <c r="J161">
-        <v>18.96816398510796</v>
-      </c>
-      <c r="K161">
-        <v>15.47160317406087</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D162">
-        <v>0.9999999999999369</v>
-      </c>
-      <c r="E162">
-        <v>0.9482041545059831</v>
-      </c>
-      <c r="F162">
-        <v>1</v>
-      </c>
-      <c r="G162">
-        <v>0.946786682984018</v>
-      </c>
-      <c r="H162">
-        <v>0.9222910578338577</v>
-      </c>
-      <c r="I162">
-        <v>0.9532523453634423</v>
-      </c>
-      <c r="J162">
-        <v>1</v>
-      </c>
-      <c r="K162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C163" t="s">
-        <v>116</v>
-      </c>
       <c r="D163">
-        <v>1.5</v>
-      </c>
-      <c r="E163">
-        <v>1.5</v>
-      </c>
-      <c r="F163">
-        <v>5</v>
-      </c>
-      <c r="G163">
-        <v>5</v>
-      </c>
-      <c r="H163">
-        <v>1.5</v>
-      </c>
-      <c r="I163">
-        <v>1.5</v>
-      </c>
-      <c r="J163">
-        <v>1.5</v>
-      </c>
-      <c r="K163">
-        <v>5</v>
+        <v>934349.6066893364</v>
       </c>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="C164" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="D164">
-        <v>5</v>
-      </c>
-      <c r="E164">
-        <v>5</v>
-      </c>
-      <c r="F164">
-        <v>1.5</v>
-      </c>
-      <c r="G164">
-        <v>5</v>
-      </c>
-      <c r="H164">
-        <v>5</v>
-      </c>
-      <c r="I164">
-        <v>5</v>
-      </c>
-      <c r="J164">
-        <v>3</v>
-      </c>
-      <c r="K164">
-        <v>5</v>
+        <v>24.06990814322591</v>
       </c>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="C165" t="s">
+        <v>24</v>
+      </c>
+      <c r="D165">
+        <v>5.723824156459123</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C166" t="s">
+        <v>123</v>
+      </c>
+      <c r="D166">
+        <v>51.87796951045812</v>
+      </c>
+      <c r="E166">
+        <v>371.3215697228824</v>
+      </c>
+      <c r="F166">
+        <v>871.0241841080083</v>
+      </c>
+      <c r="G166">
+        <v>1709.281102506295</v>
+      </c>
+      <c r="H166">
+        <v>472.2388480221064</v>
+      </c>
+      <c r="I166">
+        <v>824.2399288222554</v>
+      </c>
+      <c r="J166">
+        <v>12091.21932749524</v>
+      </c>
+      <c r="K166">
+        <v>29448.11509096563</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C167" t="s">
+        <v>124</v>
+      </c>
+      <c r="D167">
+        <v>0.5</v>
+      </c>
+      <c r="E167">
+        <v>0.5</v>
+      </c>
+      <c r="F167">
+        <v>0.5</v>
+      </c>
+      <c r="G167">
+        <v>0.5</v>
+      </c>
+      <c r="H167">
+        <v>0.5</v>
+      </c>
+      <c r="I167">
+        <v>0.5</v>
+      </c>
+      <c r="J167">
+        <v>0.5</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D165">
+      <c r="C168" t="s">
+        <v>125</v>
+      </c>
+      <c r="D168">
+        <v>102.3083022856765</v>
+      </c>
+      <c r="E168">
+        <v>35.96546232287139</v>
+      </c>
+      <c r="F168">
+        <v>8.968797108954364</v>
+      </c>
+      <c r="G168">
+        <v>18.96801364521412</v>
+      </c>
+      <c r="H168">
+        <v>14.93020413131316</v>
+      </c>
+      <c r="I168">
+        <v>21.08977516921783</v>
+      </c>
+      <c r="J168">
+        <v>15.47158142428043</v>
+      </c>
+      <c r="K168">
+        <v>12.76310615084025</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D169">
+        <v>0.9999999999999952</v>
+      </c>
+      <c r="E169">
+        <v>0.9482041545059831</v>
+      </c>
+      <c r="F169">
+        <v>0.9467929560939012</v>
+      </c>
+      <c r="G169">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H169">
+        <v>0.9222910375435875</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C170" t="s">
+        <v>126</v>
+      </c>
+      <c r="D170">
+        <v>1.5</v>
+      </c>
+      <c r="E170">
+        <v>1.5</v>
+      </c>
+      <c r="F170">
+        <v>5</v>
+      </c>
+      <c r="G170">
+        <v>1.5</v>
+      </c>
+      <c r="H170">
+        <v>1.5</v>
+      </c>
+      <c r="I170">
+        <v>5</v>
+      </c>
+      <c r="J170">
+        <v>5</v>
+      </c>
+      <c r="K170">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C171" t="s">
+        <v>126</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+      <c r="E171">
+        <v>5</v>
+      </c>
+      <c r="F171">
+        <v>5</v>
+      </c>
+      <c r="G171">
+        <v>3</v>
+      </c>
+      <c r="H171">
+        <v>5</v>
+      </c>
+      <c r="I171">
+        <v>1.5</v>
+      </c>
+      <c r="J171">
+        <v>5</v>
+      </c>
+      <c r="K171">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C172" t="s">
+        <v>126</v>
+      </c>
+      <c r="D172">
         <v>50.01380310880829</v>
       </c>
-      <c r="E165">
+      <c r="E172">
         <v>14.7</v>
       </c>
-      <c r="F165">
+      <c r="F172">
         <v>14.7</v>
       </c>
-      <c r="G165">
+      <c r="G172">
+        <v>2709.531861458823</v>
+      </c>
+      <c r="H172">
         <v>14.7</v>
       </c>
-      <c r="H165">
+      <c r="I172">
         <v>14.7</v>
       </c>
-      <c r="I165">
+      <c r="J172">
         <v>14.7</v>
       </c>
-      <c r="J165">
-        <v>2709.531861458823</v>
-      </c>
-      <c r="K165">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="K172">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C173" t="s">
         <v>20</v>
       </c>
-      <c r="D166">
+      <c r="D173">
         <v>20</v>
       </c>
-      <c r="E166">
+      <c r="E173">
         <v>20</v>
       </c>
-      <c r="F166">
+      <c r="F173">
         <v>20</v>
       </c>
-      <c r="G166">
+      <c r="G173">
         <v>20</v>
       </c>
-      <c r="H166">
+      <c r="H173">
         <v>20</v>
       </c>
-      <c r="I166">
+      <c r="I173">
         <v>20</v>
       </c>
-      <c r="J166">
+      <c r="J173">
         <v>20</v>
       </c>
-      <c r="K166">
+      <c r="K173">
         <v>20</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C167" t="s">
-        <v>23</v>
-      </c>
-      <c r="D167">
-        <v>4670.596361043651</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168" s="1"/>
-      <c r="C168" t="s">
-        <v>23</v>
-      </c>
-      <c r="D168">
-        <v>4670.596361043651</v>
-      </c>
-      <c r="E168">
-        <v>84702.85584514819</v>
-      </c>
-      <c r="F168">
-        <v>106497.8160125474</v>
-      </c>
-      <c r="G168">
-        <v>108670.2220567448</v>
-      </c>
-      <c r="H168">
-        <v>89666.33878962172</v>
-      </c>
-      <c r="I168">
-        <v>149093.9799232604</v>
-      </c>
-      <c r="J168">
-        <v>401352.6315076728</v>
-      </c>
-      <c r="K168">
-        <v>537428.9071064849</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B169" s="1"/>
-      <c r="C169" t="s">
-        <v>24</v>
-      </c>
-      <c r="D169">
-        <v>8407.073449878571</v>
-      </c>
-      <c r="E169">
-        <v>268508.0530291198</v>
-      </c>
-      <c r="F169">
-        <v>337598.0767597751</v>
-      </c>
-      <c r="G169">
-        <v>344484.6039198809</v>
-      </c>
-      <c r="H169">
-        <v>284242.2939631008</v>
-      </c>
-      <c r="I169">
-        <v>472627.9163567356</v>
-      </c>
-      <c r="J169">
-        <v>1272287.841879323</v>
-      </c>
-      <c r="K169">
-        <v>1703649.635527557</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B170" s="1"/>
-      <c r="C170" t="s">
-        <v>24</v>
-      </c>
-      <c r="D170">
-        <v>5.723750998133202</v>
-      </c>
-      <c r="E170">
-        <v>0.7059878333093026</v>
-      </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
-      <c r="G170">
-        <v>0.5085131231251548</v>
-      </c>
-      <c r="H170">
-        <v>0.3625839802886184</v>
-      </c>
-      <c r="I170">
-        <v>4.284415618708208</v>
-      </c>
-      <c r="J170">
-        <v>179.0776201240621</v>
-      </c>
-      <c r="K170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="C174" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D174">
-        <v>160.9968138907745</v>
+        <v>4670.605725771346</v>
       </c>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="1"/>
       <c r="C175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D175">
-        <v>12.58995084625857</v>
+        <v>4670.605725771346</v>
+      </c>
+      <c r="E175">
+        <v>84704.42965940347</v>
+      </c>
+      <c r="F175">
+        <v>108666.816784633</v>
+      </c>
+      <c r="G175">
+        <v>401351.1240944185</v>
+      </c>
+      <c r="H175">
+        <v>89665.49191949317</v>
+      </c>
+      <c r="I175">
+        <v>106502.5237698836</v>
+      </c>
+      <c r="J175">
+        <v>537432.1037847394</v>
+      </c>
+      <c r="K175">
+        <v>1240454.604870551</v>
       </c>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" t="s">
+        <v>24</v>
+      </c>
+      <c r="D176">
+        <v>8407.090306388422</v>
+      </c>
+      <c r="E176">
+        <v>268513.042020309</v>
+      </c>
+      <c r="F176">
+        <v>344473.8092072867</v>
+      </c>
+      <c r="G176">
+        <v>1272283.063379307</v>
+      </c>
+      <c r="H176">
+        <v>284239.6093847933</v>
+      </c>
+      <c r="I176">
+        <v>337613.0003505311</v>
+      </c>
+      <c r="J176">
+        <v>1703659.768997624</v>
+      </c>
+      <c r="K176">
+        <v>3932241.097439645</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177">
+        <v>5.723824156459123</v>
+      </c>
+      <c r="E177">
+        <v>0.706048855931539</v>
+      </c>
+      <c r="F177">
+        <v>0.5084894126708698</v>
+      </c>
+      <c r="G177">
+        <v>179.0748323998558</v>
+      </c>
+      <c r="H177">
+        <v>0.3625705450814621</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C181" t="s">
+        <v>45</v>
+      </c>
+      <c r="D181">
+        <v>160.997613116528</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C182" t="s">
+        <v>24</v>
+      </c>
+      <c r="D182">
+        <v>12.59001334571249</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C176" t="s">
-        <v>120</v>
-      </c>
-      <c r="D176">
-        <v>114.9977242076961</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D177">
+      <c r="C183" t="s">
+        <v>130</v>
+      </c>
+      <c r="D183">
+        <v>114.9982950832343</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D184">
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="1" t="s">
+    <row r="185" spans="1:11">
+      <c r="A185" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C178" t="s">
-        <v>23</v>
-      </c>
-      <c r="D178">
-        <v>621235.868181682</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="1" t="s">
+      <c r="B185" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C185" t="s">
+        <v>23</v>
+      </c>
+      <c r="D185">
+        <v>621237.6383727457</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="1"/>
-      <c r="C179" t="s">
-        <v>23</v>
-      </c>
-      <c r="D179">
-        <v>621235.868181682</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="1" t="s">
+      <c r="B186" s="1"/>
+      <c r="C186" t="s">
+        <v>23</v>
+      </c>
+      <c r="D186">
+        <v>621237.6383727457</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B180" s="1"/>
-      <c r="C180" t="s">
-        <v>24</v>
-      </c>
-      <c r="D180">
-        <v>1261108.812408814</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="1" t="s">
+      <c r="B187" s="1"/>
+      <c r="C187" t="s">
+        <v>24</v>
+      </c>
+      <c r="D187">
+        <v>1261112.405896674</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B181" s="1"/>
-      <c r="C181" t="s">
-        <v>24</v>
-      </c>
-      <c r="D181">
-        <v>12.58995084625857</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1" t="s">
+      <c r="B188" s="1"/>
+      <c r="C188" t="s">
+        <v>24</v>
+      </c>
+      <c r="D188">
+        <v>12.59001334571249</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="1" t="s">
+      <c r="D191" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C192" t="s">
         <v>45</v>
       </c>
-      <c r="D185">
-        <v>9.56973187761867</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C186" t="s">
-        <v>24</v>
-      </c>
-      <c r="D186">
-        <v>0.7483530328297801</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C187" t="s">
-        <v>138</v>
-      </c>
-      <c r="D187">
-        <v>9.56973187761867</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C188" t="s">
-        <v>139</v>
-      </c>
-      <c r="D188">
-        <v>12.83301044788664</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D189" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C190" t="s">
-        <v>20</v>
-      </c>
-      <c r="D190">
-        <v>2.301106025017866</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C191" t="s">
-        <v>20</v>
-      </c>
-      <c r="D191">
-        <v>2.301106025017866</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C192" t="s">
-        <v>21</v>
-      </c>
       <c r="D192">
-        <v>260.84</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>9.569788789006449</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="C193" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D193">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
-      <c r="A194" s="1"/>
+        <v>0.7483574833003044</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B194" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D194" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="C194" t="s">
+        <v>148</v>
+      </c>
+      <c r="D194">
+        <v>9.569788789006449</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C195" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="D195">
-        <v>27.67810484966423</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>12.83308676605765</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C196" t="s">
-        <v>20</v>
-      </c>
-      <c r="D196">
-        <v>6.919526212416058</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>135</v>
+      </c>
+      <c r="D196" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D197">
-        <v>10447.8</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>2.301110586583414</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C198" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D198">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>2.301110586583414</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="C199" t="s">
+        <v>21</v>
       </c>
       <c r="D199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
-      <c r="A200" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>260.84</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C200" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D200">
-        <v>22887.90371036585</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C201" t="s">
-        <v>23</v>
-      </c>
-      <c r="D201">
-        <v>3378.23628611508</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
-      <c r="A202" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D201" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C202" t="s">
+        <v>20</v>
+      </c>
+      <c r="D202">
+        <v>27.67818715066474</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C203" t="s">
+        <v>20</v>
+      </c>
+      <c r="D203">
+        <v>6.919546787666184</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C204" t="s">
+        <v>21</v>
+      </c>
+      <c r="D204">
+        <v>10447.87</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C205" t="s">
+        <v>22</v>
+      </c>
+      <c r="D205">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C207" t="s">
+        <v>23</v>
+      </c>
+      <c r="D207">
+        <v>22887.95502408258</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C208" t="s">
+        <v>23</v>
+      </c>
+      <c r="D208">
+        <v>3378.238305327909</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B202" s="1"/>
-      <c r="C202" t="s">
-        <v>23</v>
-      </c>
-      <c r="D202">
-        <v>26266.13999648093</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
-      <c r="A203" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B203" s="1"/>
-      <c r="C203" t="s">
-        <v>24</v>
-      </c>
-      <c r="D203">
-        <v>77227.98573797388</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
-      <c r="A204" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B204" s="1"/>
-      <c r="C204" t="s">
-        <v>24</v>
-      </c>
-      <c r="D204">
-        <v>0.7483530328297801</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
-      <c r="A207" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I207" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
-      <c r="A208" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C208" t="s">
-        <v>45</v>
-      </c>
-      <c r="D208">
-        <v>70.83847048818566</v>
-      </c>
-      <c r="E208">
-        <v>20.51491676320557</v>
-      </c>
-      <c r="F208">
-        <v>16.83260357812726</v>
-      </c>
-      <c r="G208">
-        <v>20.1788129719525</v>
-      </c>
-      <c r="H208">
-        <v>16.83254115310283</v>
-      </c>
-      <c r="I208">
-        <v>20.24724510526699</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B209" s="1"/>
       <c r="C209" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D209">
-        <v>5.539568392176119</v>
-      </c>
-      <c r="E209">
-        <v>1.604266490882675</v>
-      </c>
-      <c r="F209">
-        <v>1.316309599809552</v>
-      </c>
-      <c r="G209">
-        <v>1.577983174406686</v>
-      </c>
-      <c r="H209">
-        <v>1.316304718172641</v>
-      </c>
-      <c r="I209">
-        <v>1.583334567231879</v>
+        <v>26266.19332941049</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B210" s="1"/>
       <c r="C210" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="D210">
-        <v>70.41546799167509</v>
-      </c>
-      <c r="E210">
-        <v>17.36169516396376</v>
-      </c>
-      <c r="F210">
-        <v>13.74375787153666</v>
-      </c>
-      <c r="G210">
-        <v>17.02844847192707</v>
-      </c>
-      <c r="H210">
-        <v>13.74369720748605</v>
-      </c>
-      <c r="I210">
-        <v>17.09625358051645</v>
+        <v>77228.11451371352</v>
       </c>
     </row>
     <row r="211" spans="1:9">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A211" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="1"/>
       <c r="C211" t="s">
+        <v>24</v>
+      </c>
+      <c r="D211">
+        <v>0.7483574833003044</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H214" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D211">
-        <v>2053.590632623414</v>
-      </c>
-      <c r="E211">
-        <v>506.3349796864859</v>
-      </c>
-      <c r="F211">
-        <v>400.8217686683386</v>
-      </c>
-      <c r="G211">
-        <v>496.616201914531</v>
-      </c>
-      <c r="H211">
-        <v>400.8199994672011</v>
-      </c>
-      <c r="I211">
-        <v>498.5936642507841</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D212">
-        <v>0.7412592342430225</v>
-      </c>
-      <c r="E212">
-        <v>0.6310933291365095</v>
-      </c>
-      <c r="F212">
-        <v>0.608871185856571</v>
-      </c>
-      <c r="G212">
-        <v>0.6292897915154104</v>
-      </c>
-      <c r="H212">
-        <v>0.6088707563836117</v>
-      </c>
-      <c r="I212">
-        <v>0.629660185152081</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D213">
-        <v>94.99438892465697</v>
-      </c>
-      <c r="E213">
-        <v>27.51050337945866</v>
-      </c>
-      <c r="F213">
-        <v>22.57252139826865</v>
-      </c>
-      <c r="G213">
-        <v>27.0597881953883</v>
-      </c>
-      <c r="H213">
-        <v>22.57243768631089</v>
-      </c>
-      <c r="I213">
-        <v>27.15155568616303</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D214">
-        <v>100</v>
-      </c>
-      <c r="E214">
-        <v>30</v>
-      </c>
-      <c r="F214">
-        <v>25</v>
-      </c>
-      <c r="G214">
-        <v>30</v>
-      </c>
-      <c r="H214">
-        <v>25</v>
-      </c>
-      <c r="I214">
-        <v>30</v>
+      <c r="I214" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="215" spans="1:9">
-      <c r="A215" s="1"/>
+      <c r="A215" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B215" s="1" t="s">
-        <v>151</v>
+        <v>34</v>
+      </c>
+      <c r="C215" t="s">
+        <v>45</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>20.17889943331414</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>70.83883193988908</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>20.51500361723565</v>
       </c>
       <c r="G215">
-        <v>1</v>
+        <v>16.8326909288164</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>20.24734851465822</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>16.832625314219</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="1"/>
       <c r="B216" s="1" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="C216" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D216">
-        <v>192.6586243957618</v>
+        <v>1.577989935685166</v>
       </c>
       <c r="E216">
-        <v>291.5307111052964</v>
+        <v>5.539596657699327</v>
       </c>
       <c r="F216">
-        <v>298.9006384006789</v>
+        <v>1.604273282867828</v>
       </c>
       <c r="G216">
-        <v>294.3262423511411</v>
+        <v>1.316316430633442</v>
       </c>
       <c r="H216">
-        <v>298.900843083742</v>
+        <v>1.583342653846273</v>
       </c>
       <c r="I216">
-        <v>366.0734380696719</v>
+        <v>1.316311299571926</v>
       </c>
     </row>
     <row r="217" spans="1:9">
-      <c r="A217" s="1"/>
+      <c r="A217" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B217" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D217" t="s">
-        <v>156</v>
-      </c>
-      <c r="E217" t="s">
-        <v>156</v>
-      </c>
-      <c r="F217" t="s">
-        <v>156</v>
-      </c>
-      <c r="G217" t="s">
-        <v>156</v>
-      </c>
-      <c r="H217" t="s">
-        <v>156</v>
-      </c>
-      <c r="I217" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="C217" t="s">
+        <v>149</v>
+      </c>
+      <c r="D217">
+        <v>17.02853412633985</v>
+      </c>
+      <c r="E217">
+        <v>70.41586112093236</v>
+      </c>
+      <c r="F217">
+        <v>17.36178135146999</v>
+      </c>
+      <c r="G217">
+        <v>13.74384275815515</v>
+      </c>
+      <c r="H217">
+        <v>17.09635606003176</v>
+      </c>
+      <c r="I217">
+        <v>13.74377899447166</v>
       </c>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A218" s="1"/>
       <c r="B218" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="D218">
-        <v>39820.75463729655</v>
+        <v>496.6186999324346</v>
       </c>
       <c r="E218">
-        <v>14261.78928948614</v>
+        <v>2053.602097811151</v>
       </c>
       <c r="F218">
-        <v>13057.30703084079</v>
+        <v>506.3374932514807</v>
       </c>
       <c r="G218">
-        <v>14175.23048398615</v>
+        <v>400.8242442943555</v>
       </c>
       <c r="H218">
-        <v>13057.28683768313</v>
+        <v>498.5966529545259</v>
       </c>
       <c r="I218">
-        <v>14873.22552797977</v>
+        <v>400.8223846957923</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="1"/>
       <c r="B219" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C219" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="D219">
-        <v>4820.539611345683</v>
+        <v>0.6292902605342755</v>
       </c>
       <c r="E219">
-        <v>1325.420355284472</v>
+        <v>0.7412595904297651</v>
       </c>
       <c r="F219">
-        <v>1132.753107661787</v>
+        <v>0.6310937901684546</v>
       </c>
       <c r="G219">
-        <v>1325.420355284472</v>
+        <v>0.6088717868101305</v>
       </c>
       <c r="H219">
-        <v>1132.753107661787</v>
+        <v>0.6296607436174908</v>
       </c>
       <c r="I219">
-        <v>1325.420355284472</v>
+        <v>0.6088713353964902</v>
       </c>
     </row>
     <row r="220" spans="1:9">
-      <c r="A220" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B220" s="1"/>
-      <c r="C220" t="s">
-        <v>23</v>
+      <c r="A220" s="1"/>
+      <c r="B220" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="D220">
-        <v>44641.29424864223</v>
+        <v>27.05990414007426</v>
       </c>
       <c r="E220">
-        <v>15587.20964477062</v>
+        <v>94.99487363139124</v>
       </c>
       <c r="F220">
-        <v>14190.06013850257</v>
+        <v>27.510619850713</v>
       </c>
       <c r="G220">
-        <v>15500.65083927062</v>
+        <v>22.57263853554279</v>
       </c>
       <c r="H220">
-        <v>14190.03994534492</v>
+        <v>27.15169435815667</v>
       </c>
       <c r="I220">
-        <v>16198.64588326424</v>
+        <v>22.57255054636768</v>
       </c>
     </row>
     <row r="221" spans="1:9">
-      <c r="A221" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B221" s="1"/>
-      <c r="C221" t="s">
-        <v>24</v>
+      <c r="A221" s="1"/>
+      <c r="B221" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="D221">
-        <v>147316.2710205194</v>
+        <v>30</v>
       </c>
       <c r="E221">
-        <v>51437.79182774303</v>
+        <v>100</v>
       </c>
       <c r="F221">
-        <v>46827.19845705849</v>
+        <v>30</v>
       </c>
       <c r="G221">
-        <v>51152.14776959305</v>
+        <v>25</v>
       </c>
       <c r="H221">
-        <v>46827.13181963823</v>
+        <v>30</v>
       </c>
       <c r="I221">
-        <v>53455.53141477198</v>
+        <v>25</v>
       </c>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B222" s="1"/>
-      <c r="C222" t="s">
-        <v>24</v>
+      <c r="A222" s="1"/>
+      <c r="B222" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="D222">
-        <v>5.539568392176119</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>1.604266490882675</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.316309599809552</v>
+        <v>1</v>
       </c>
       <c r="G222">
-        <v>1.577983174406686</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>1.316304718172641</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>1.583334567231879</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C223" t="s">
+        <v>20</v>
+      </c>
+      <c r="D223">
+        <v>294.326015318584</v>
+      </c>
+      <c r="E223">
+        <v>192.6585325533822</v>
+      </c>
+      <c r="F223">
+        <v>291.5304972667875</v>
+      </c>
+      <c r="G223">
+        <v>298.9003145945514</v>
+      </c>
+      <c r="H223">
+        <v>366.0731134468218</v>
+      </c>
+      <c r="I223">
+        <v>298.9005594584461</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D224" t="s">
+        <v>166</v>
+      </c>
+      <c r="E224" t="s">
+        <v>166</v>
+      </c>
+      <c r="F224" t="s">
+        <v>166</v>
+      </c>
+      <c r="G224" t="s">
+        <v>166</v>
+      </c>
+      <c r="H224" t="s">
+        <v>166</v>
+      </c>
+      <c r="I224" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>157</v>
+        <v>4</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C225" t="s">
+        <v>23</v>
+      </c>
+      <c r="D225">
+        <v>14175.2578351335</v>
+      </c>
+      <c r="E225">
+        <v>39820.88736623073</v>
+      </c>
+      <c r="F225">
+        <v>14261.81669482877</v>
+      </c>
+      <c r="G225">
+        <v>13057.3349766362</v>
+      </c>
+      <c r="H225">
+        <v>14873.26143614959</v>
+      </c>
+      <c r="I225">
+        <v>13057.31399834124</v>
       </c>
     </row>
     <row r="226" spans="1:9">
-      <c r="A226" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A226" s="1"/>
       <c r="B226" s="1" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="C226" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D226">
-        <v>652.9699944748534</v>
+        <v>1325.420355284472</v>
+      </c>
+      <c r="E226">
+        <v>4820.539611345683</v>
+      </c>
+      <c r="F226">
+        <v>1325.420355284472</v>
+      </c>
+      <c r="G226">
+        <v>1132.753107661787</v>
+      </c>
+      <c r="H226">
+        <v>1325.420355284472</v>
+      </c>
+      <c r="I226">
+        <v>1132.753107661787</v>
       </c>
     </row>
     <row r="227" spans="1:9">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A227" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="1"/>
       <c r="C227" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D227">
-        <v>51.06225356793354</v>
+        <v>15500.67819041798</v>
+      </c>
+      <c r="E227">
+        <v>44641.42697757641</v>
+      </c>
+      <c r="F227">
+        <v>15587.23705011324</v>
+      </c>
+      <c r="G227">
+        <v>14190.08808429798</v>
+      </c>
+      <c r="H227">
+        <v>16198.68179143406</v>
+      </c>
+      <c r="I227">
+        <v>14190.06710600303</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B228" s="1"/>
       <c r="C228" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="D228">
-        <v>466.4071389106095</v>
+        <v>51152.23802837932</v>
+      </c>
+      <c r="E228">
+        <v>147316.7090260022</v>
+      </c>
+      <c r="F228">
+        <v>51437.88226537369</v>
+      </c>
+      <c r="G228">
+        <v>46827.29067818334</v>
+      </c>
+      <c r="H228">
+        <v>53455.64991173239</v>
+      </c>
+      <c r="I228">
+        <v>46827.22144980999</v>
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1" t="s">
-        <v>119</v>
+      <c r="A229" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" t="s">
+        <v>24</v>
       </c>
       <c r="D229">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
-      <c r="A230" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C230" t="s">
-        <v>23</v>
-      </c>
-      <c r="D230">
-        <v>1649327.842540777</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
-      <c r="A231" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B231" s="1"/>
-      <c r="C231" t="s">
-        <v>23</v>
-      </c>
-      <c r="D231">
-        <v>1649327.842540777</v>
+        <v>1.577989935685166</v>
+      </c>
+      <c r="E229">
+        <v>5.539596657699327</v>
+      </c>
+      <c r="F229">
+        <v>1.604273282867828</v>
+      </c>
+      <c r="G229">
+        <v>1.316316430633442</v>
+      </c>
+      <c r="H229">
+        <v>1.583342653846273</v>
+      </c>
+      <c r="I229">
+        <v>1.316311299571926</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="B232" s="1"/>
-      <c r="C232" t="s">
-        <v>24</v>
-      </c>
-      <c r="D232">
-        <v>3348135.520357777</v>
+      <c r="C232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B233" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C233" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D233">
-        <v>51.06225356793354</v>
+        <v>652.9736400035457</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C234" t="s">
+        <v>24</v>
+      </c>
+      <c r="D234">
+        <v>51.06253864827728</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C235" t="s">
+        <v>130</v>
+      </c>
+      <c r="D235">
+        <v>466.4097428596755</v>
       </c>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H236" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I236" s="1" t="s">
-        <v>164</v>
+      <c r="A236" s="1"/>
+      <c r="B236" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D236">
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C237" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="D237">
-        <v>2</v>
-      </c>
-      <c r="E237">
-        <v>168</v>
-      </c>
-      <c r="F237">
-        <v>0.25</v>
-      </c>
-      <c r="G237">
-        <v>168</v>
-      </c>
-      <c r="H237">
-        <v>168</v>
-      </c>
-      <c r="I237">
-        <v>168</v>
+        <v>1649333.128035727</v>
       </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="A238" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="1"/>
       <c r="C238" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="D238">
-        <v>932.8142778212192</v>
-      </c>
-      <c r="E238">
-        <v>10.91108394580406</v>
-      </c>
-      <c r="F238">
-        <v>22.7584470059243</v>
-      </c>
-      <c r="G238">
-        <v>776.1937578314416</v>
-      </c>
-      <c r="H238">
-        <v>2299.523034642604</v>
-      </c>
-      <c r="I238">
-        <v>0.5634192121299422</v>
+        <v>1649333.128035727</v>
       </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1" t="s">
-        <v>168</v>
+      <c r="A239" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" s="1"/>
+      <c r="C239" t="s">
+        <v>24</v>
       </c>
       <c r="D239">
-        <v>1</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="H239">
-        <v>1</v>
-      </c>
-      <c r="I239">
-        <v>1</v>
+        <v>3348146.249912526</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B240" s="1"/>
       <c r="C240" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D240">
-        <v>230108.2083987516</v>
-      </c>
-      <c r="E240">
-        <v>72078.75289322039</v>
-      </c>
-      <c r="F240">
-        <v>74109.58687449431</v>
-      </c>
-      <c r="G240">
-        <v>469048.6814013057</v>
-      </c>
-      <c r="H240">
-        <v>813492.2165514919</v>
-      </c>
-      <c r="I240">
-        <v>70304.99200977857</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9">
-      <c r="A241" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B241" s="1"/>
-      <c r="C241" t="s">
-        <v>23</v>
-      </c>
-      <c r="D241">
-        <v>230108.2083987516</v>
-      </c>
-      <c r="E241">
-        <v>72078.75289322039</v>
-      </c>
-      <c r="F241">
-        <v>74109.58687449431</v>
-      </c>
-      <c r="G241">
-        <v>469048.6814013057</v>
-      </c>
-      <c r="H241">
-        <v>813492.2165514919</v>
-      </c>
-      <c r="I241">
-        <v>70304.99200977857</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9">
-      <c r="A242" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B242" s="1"/>
-      <c r="C242" t="s">
-        <v>24</v>
-      </c>
-      <c r="D242">
-        <v>529248.8793171287</v>
-      </c>
-      <c r="E242">
-        <v>165781.1316544069</v>
-      </c>
-      <c r="F242">
-        <v>170452.0498113369</v>
-      </c>
-      <c r="G242">
-        <v>1078811.967223003</v>
-      </c>
-      <c r="H242">
-        <v>1871032.098068431</v>
-      </c>
-      <c r="I242">
-        <v>161701.4816224907</v>
+        <v>51.06253864827728</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="1" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="B243" s="1"/>
-      <c r="C243" t="s">
-        <v>24</v>
-      </c>
-      <c r="D243">
+      <c r="C243" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E243">
-        <v>0</v>
-      </c>
-      <c r="F243">
-        <v>0</v>
-      </c>
-      <c r="G243">
-        <v>0</v>
-      </c>
-      <c r="H243">
-        <v>0</v>
-      </c>
-      <c r="I243">
-        <v>0</v>
+      <c r="D243" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C244" t="s">
+        <v>104</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="E244">
+        <v>168</v>
+      </c>
+      <c r="F244">
+        <v>168</v>
+      </c>
+      <c r="G244">
+        <v>168</v>
+      </c>
+      <c r="H244">
+        <v>0.25</v>
+      </c>
+      <c r="I244">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C245" t="s">
+        <v>148</v>
+      </c>
+      <c r="D245">
+        <v>932.8194857193512</v>
+      </c>
+      <c r="E245">
+        <v>10.91108394580406</v>
+      </c>
+      <c r="F245">
+        <v>776.2608487588369</v>
+      </c>
+      <c r="G245">
+        <v>2299.736961653589</v>
+      </c>
+      <c r="H245">
+        <v>22.75858757065385</v>
+      </c>
+      <c r="I245">
+        <v>0.5634225770413331</v>
       </c>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>170</v>
+      <c r="A246" s="1"/>
+      <c r="B246" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C247" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="D247">
-        <v>0.1</v>
+        <v>230109.101118629</v>
+      </c>
+      <c r="E247">
+        <v>72078.75289322039</v>
+      </c>
+      <c r="F247">
+        <v>469069.2360602511</v>
+      </c>
+      <c r="G247">
+        <v>813530.5854437763</v>
+      </c>
+      <c r="H247">
+        <v>74109.61096961386</v>
+      </c>
+      <c r="I247">
+        <v>70304.99258658003</v>
       </c>
     </row>
     <row r="248" spans="1:9">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="A248" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" s="1"/>
       <c r="C248" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="D248">
-        <v>11.49977242076961</v>
+        <v>230109.101118629</v>
+      </c>
+      <c r="E248">
+        <v>72078.75289322039</v>
+      </c>
+      <c r="F248">
+        <v>469069.2360602511</v>
+      </c>
+      <c r="G248">
+        <v>813530.5854437763</v>
+      </c>
+      <c r="H248">
+        <v>74109.61096961386</v>
+      </c>
+      <c r="I248">
+        <v>70304.99258658003</v>
       </c>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1" t="s">
-        <v>168</v>
+      <c r="A249" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" t="s">
+        <v>24</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>529250.9325728465</v>
+      </c>
+      <c r="E249">
+        <v>165781.1316544069</v>
+      </c>
+      <c r="F249">
+        <v>1078859.242938577</v>
+      </c>
+      <c r="G249">
+        <v>1871120.346520685</v>
+      </c>
+      <c r="H249">
+        <v>170452.1052301119</v>
+      </c>
+      <c r="I249">
+        <v>161701.482949134</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B250" s="1"/>
       <c r="C250" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D250">
-        <v>72179.66383460691</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9">
-      <c r="A251" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B251" s="1"/>
-      <c r="C251" t="s">
-        <v>23</v>
-      </c>
-      <c r="D251">
-        <v>72179.66383460691</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9">
-      <c r="A252" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B252" s="1"/>
-      <c r="C252" t="s">
-        <v>24</v>
-      </c>
-      <c r="D252">
-        <v>166013.2268195959</v>
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:9">
       <c r="A253" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C254" t="s">
+        <v>104</v>
+      </c>
+      <c r="D254">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C255" t="s">
+        <v>148</v>
+      </c>
+      <c r="D255">
+        <v>11.49982950832343</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C257" t="s">
+        <v>23</v>
+      </c>
+      <c r="D257">
+        <v>72179.67362035783</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" t="s">
+        <v>23</v>
+      </c>
+      <c r="D258">
+        <v>72179.67362035783</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" t="s">
+        <v>24</v>
+      </c>
+      <c r="D259">
+        <v>166013.249326823</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B253" s="1"/>
-      <c r="C253" t="s">
-        <v>24</v>
-      </c>
-      <c r="D253">
+      <c r="B260" s="1"/>
+      <c r="C260" t="s">
+        <v>24</v>
+      </c>
+      <c r="D260">
         <v>0</v>
       </c>
     </row>
@@ -4352,26 +4484,26 @@
     <mergeCell ref="A99:A102"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A123"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A139:A145"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="A159:A166"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A187:A199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="A210:A217"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="A237:A239"/>
-    <mergeCell ref="A247:A249"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A146:A152"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="A166:A173"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="A194:A206"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="A217:A224"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A244:A246"/>
+    <mergeCell ref="A254:A256"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
